--- a/Bitácora_12.xlsx
+++ b/Bitácora_12.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="221">
   <si>
     <t>Código: 
 GFPI-F-147</t>
@@ -951,24 +951,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Apoyo en la creación de un cuadro para una religiosa:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>La Sor Rosa, está tomando como un tipo de cursos, por lo cual debe llevar un órden de unos videos, que son "Ejercicios Espirituales online", son en total 50, entonces ella requirió de mi ayuda para crear un cuadro y de esa manera poder llevar un registro de la cronología.
-En el cuadro pusimos 9 columnas en total, donde las más esenciales son la fecha, el tema del día, las horas y unos cuadros pequeños para poner una equi o un "chulo" según lo requerido.</t>
-    </r>
-  </si>
-  <si>
-    <t>Resultado cuadro "Planificación-Ejercicios Espirituales online"</t>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -988,14 +970,51 @@
     </r>
   </si>
   <si>
-    <t>Reportar cualquier anomalía en algún dispositivo o elemento.</t>
-  </si>
-  <si>
-    <t>Reultado PDF de la programación diseñado en Canva.</t>
+    <t xml:space="preserve">Desde 06/04/25 hasta </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Creación de dos tablas en Excel:
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Domingo 06 abril
+Sábado 12 abril
+Domingo 13 abril
+Sábado 19 abril
+Domingo 20 abril
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Días festivos:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Jueves 17 abril
+Viernes 18 abril</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actividad extra-laboral:
 </t>
     </r>
     <r>
@@ -1004,12 +1023,12 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Van a haber "misiones" en varias veredas, entonces tocó crear dos tablas donde se escribieron todos los datos de cada persona que va a asistir.</t>
+      <t>Llegó una nueva religiosa desde la provincia en Bogotá, por lo cual, el día 9 de abril, solamente se realizaron actividades en un salón llamado "Sala catequística", algo parecido a un auditorio.</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Arreglo de cartelera:
+      <t xml:space="preserve">Escanear documentos de los trabajadores:
 </t>
     </r>
     <r>
@@ -1018,7 +1037,22 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Las hermanas religiosas tienen un tablero en el cual cada mes cambian el diseño de acuerdo al tema, por lo cual con ayuda de una Sor, primero tuvimos que quitar todo lo que había de la anterior y luego poner todo lo de la nueva del tema qu le correspondía a ella.</t>
+      <t>Cada trabajador tiene un paquete de documentos, en los cuales estaba el contrato laboral, el perfil de cargo, la autorización para el manejo de datos y solo algunos tenían auxilio de transporte.
+Primero debía tomar las fotos, crear el pdf en CamScanner, enviar cada documento por WhatsApp, para poderlos descargar en el computador, crear una carpeta con todos los pdf ya escaneados, comprimir dicha carpeta y luego enviarla por el correo electrónico (pág.30).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cambios del PDF de la programación diseñado en Canva:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cambiaron las fechas y algunas actividades del pdf de la programación, por lo cual se cambiaron los textos y el diseño en general.</t>
     </r>
   </si>
   <si>
@@ -1030,10 +1064,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PDF - Pág 10-14
-Pág 17-20
-Pág 24
-Pág 65-68:</t>
+      <t>Pág 1-3:</t>
     </r>
     <r>
       <rPr>
@@ -1045,7 +1076,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-https://n9.cl/qpnl7k</t>
+https://n9.cl/8jjes</t>
     </r>
   </si>
   <si>
@@ -1057,7 +1088,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PDF - Pág 1:</t>
+      <t>Pág 4:</t>
     </r>
     <r>
       <rPr>
@@ -1069,7 +1100,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-https://n9.cl/qpnl7k</t>
+https://n9.cl/8jjes</t>
     </r>
   </si>
   <si>
@@ -1081,8 +1112,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PDF - Pág 2-9
-Pág 25-61:</t>
+      <t>Pág 5-18:</t>
     </r>
     <r>
       <rPr>
@@ -1094,7 +1124,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-https://n9.cl/qpnl7k</t>
+https://n9.cl/8jjes</t>
     </r>
   </si>
   <si>
@@ -1106,9 +1136,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PDF - Pág 15 y 16
-Pág 21, 22 y 23
-Pág 62:</t>
+      <t>Pág 21-30:</t>
     </r>
     <r>
       <rPr>
@@ -1120,7 +1148,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-https://n9.cl/qpnl7k</t>
+https://n9.cl/8jjes</t>
     </r>
   </si>
   <si>
@@ -1132,7 +1160,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PDF- Pág 75:</t>
+      <t>Documento pdf:</t>
     </r>
     <r>
       <rPr>
@@ -1144,7 +1172,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-https://n9.cl/qpnl7k</t>
+https://n9.cl/q5iep</t>
     </r>
   </si>
   <si>
@@ -1156,7 +1184,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PDF- Pág 63 y 64:</t>
+      <t>Pág 19 y 20:</t>
     </r>
     <r>
       <rPr>
@@ -1168,154 +1196,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-https://n9.cl/qpnl7k</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Documento PDF:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-https://n9.cl/t2wih</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Documento PDF:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-https://n9.cl/nx4sq</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PDF - Pág 69-74:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-https://n9.cl/qpnl7k</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Documento Excel:</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-https://n9.cl/3nt167</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Creación de un pdf en Canva:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Desde cero junto a sor Rosa, creamos la programación para la semana santa, lo realizamos en Canva, escribimos cada texto, buscamos las imágenes y definimos los colores junto las fuentes y tamaños, para todo el diseño.
-Nuevamente, se reforzaron las enseñanzas sobre cada función y elemento de Canva.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Desde 06/04/25 hasta </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Domingo 06 abril
-Sábado 12 abril
-Domingo 13 abril
-Sábado 19 abril
-Domingo 20 abril
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Días festivos:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Jueves 17 abril
-Viernes 18 abril</t>
+https://n9.cl/8jjes</t>
     </r>
   </si>
 </sst>
@@ -1323,7 +1204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1591,21 +1472,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -3230,8 +3096,98 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -3266,18 +3222,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -3287,85 +3231,55 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3383,15 +3297,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3401,50 +3309,95 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -3458,94 +3411,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3589,7 +3455,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
             <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
-              <adec:decorative xmlns="" xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3823,7 +3689,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E00CC92-0015-4CE3-A33B-B1A9AF53B1A4}"/>
             </a:ext>
             <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
-              <adec:decorative xmlns="" xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" xmlns="" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4095,13 +3961,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>54429</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>22597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1681119</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>187440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4145,14 +4011,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1083733</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>25401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1444473</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>165520</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>165519</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4189,13 +4055,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1676400</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>185057</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4238,7 +4104,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>20/04/2025</a:t>
+            <a:t>21/04/2025</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4653,56 +4519,56 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="210"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="185"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="213"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="188"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="214" t="s">
+      <c r="B5" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="215"/>
-      <c r="D5" s="215"/>
-      <c r="E5" s="216"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="191"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="211" t="s">
+      <c r="B6" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="212"/>
-      <c r="D6" s="212"/>
-      <c r="E6" s="213"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="188"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="208" t="s">
+      <c r="B7" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="210"/>
+      <c r="C7" s="184"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="185"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -4714,29 +4580,29 @@
       <c r="C8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="217" t="s">
+      <c r="D8" s="192" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="218"/>
+      <c r="E8" s="193"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="219" t="s">
+      <c r="B9" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="220"/>
-      <c r="D9" s="220"/>
-      <c r="E9" s="221"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="196"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="222" t="s">
+      <c r="B10" s="197" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="223"/>
-      <c r="D10" s="223"/>
-      <c r="E10" s="224"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="199"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="200" t="s">
@@ -4747,12 +4613,12 @@
       <c r="E11" s="202"/>
     </row>
     <row r="12" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="191" t="s">
+      <c r="B12" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="192"/>
-      <c r="D12" s="193"/>
-      <c r="E12" s="194"/>
+      <c r="C12" s="180"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="182"/>
       <c r="F12" s="1"/>
       <c r="G12" s="39"/>
     </row>
@@ -4763,68 +4629,68 @@
       <c r="E13" s="83"/>
     </row>
     <row r="14" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="182" t="s">
+      <c r="B14" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="184"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="214"/>
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="185" t="s">
+      <c r="B15" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="186"/>
-      <c r="D15" s="186"/>
-      <c r="E15" s="187"/>
+      <c r="C15" s="216"/>
+      <c r="D15" s="216"/>
+      <c r="E15" s="217"/>
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="185" t="s">
+      <c r="B16" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="186"/>
-      <c r="D16" s="186"/>
-      <c r="E16" s="187"/>
+      <c r="C16" s="216"/>
+      <c r="D16" s="216"/>
+      <c r="E16" s="217"/>
     </row>
     <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="195" t="s">
+      <c r="B17" s="221" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="196"/>
-      <c r="D17" s="196"/>
-      <c r="E17" s="197"/>
+      <c r="C17" s="222"/>
+      <c r="D17" s="222"/>
+      <c r="E17" s="223"/>
     </row>
     <row r="18" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="185" t="s">
+      <c r="B18" s="215" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="186"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="187"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="217"/>
     </row>
     <row r="19" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="185" t="s">
+      <c r="B19" s="215" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="186"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="187"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="216"/>
+      <c r="E19" s="217"/>
     </row>
     <row r="20" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="188" t="s">
+      <c r="B20" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="189"/>
-      <c r="D20" s="189"/>
-      <c r="E20" s="190"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="220"/>
     </row>
     <row r="21" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="191" t="s">
+      <c r="B21" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="192"/>
-      <c r="D21" s="193"/>
-      <c r="E21" s="194"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="182"/>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="200" t="s">
@@ -4862,8 +4728,8 @@
       <c r="C25" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="198"/>
-      <c r="E25" s="199"/>
+      <c r="D25" s="208"/>
+      <c r="E25" s="209"/>
     </row>
     <row r="26" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B26" s="65" t="s">
@@ -4872,8 +4738,8 @@
       <c r="C26" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="198"/>
-      <c r="E26" s="199"/>
+      <c r="D26" s="208"/>
+      <c r="E26" s="209"/>
     </row>
     <row r="27" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B27" s="67" t="s">
@@ -4882,8 +4748,8 @@
       <c r="C27" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="198"/>
-      <c r="E27" s="199"/>
+      <c r="D27" s="208"/>
+      <c r="E27" s="209"/>
     </row>
     <row r="28" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="77" t="s">
@@ -4892,8 +4758,8 @@
       <c r="C28" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="198"/>
-      <c r="E28" s="199"/>
+      <c r="D28" s="208"/>
+      <c r="E28" s="209"/>
     </row>
     <row r="29" spans="2:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="77" t="s">
@@ -4902,10 +4768,10 @@
       <c r="C29" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="198" t="s">
+      <c r="D29" s="208" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="199" t="s">
+      <c r="E29" s="209" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4916,10 +4782,10 @@
       <c r="C30" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="198" t="s">
+      <c r="D30" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="199" t="s">
+      <c r="E30" s="209" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4930,8 +4796,8 @@
       <c r="C31" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="198"/>
-      <c r="E31" s="199"/>
+      <c r="D31" s="208"/>
+      <c r="E31" s="209"/>
     </row>
     <row r="32" spans="2:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="77" t="s">
@@ -4940,10 +4806,10 @@
       <c r="C32" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="198" t="s">
+      <c r="D32" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="199" t="s">
+      <c r="E32" s="209" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4954,8 +4820,8 @@
       <c r="C33" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="198"/>
-      <c r="E33" s="199"/>
+      <c r="D33" s="208"/>
+      <c r="E33" s="209"/>
     </row>
     <row r="34" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B34" s="77" t="s">
@@ -4964,8 +4830,8 @@
       <c r="C34" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="198"/>
-      <c r="E34" s="199"/>
+      <c r="D34" s="208"/>
+      <c r="E34" s="209"/>
     </row>
     <row r="35" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B35" s="77" t="s">
@@ -4974,8 +4840,8 @@
       <c r="C35" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="198"/>
-      <c r="E35" s="199"/>
+      <c r="D35" s="208"/>
+      <c r="E35" s="209"/>
     </row>
     <row r="36" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B36" s="77" t="s">
@@ -4984,8 +4850,8 @@
       <c r="C36" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="198"/>
-      <c r="E36" s="199"/>
+      <c r="D36" s="208"/>
+      <c r="E36" s="209"/>
     </row>
     <row r="37" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B37" s="77" t="s">
@@ -4994,8 +4860,8 @@
       <c r="C37" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="198"/>
-      <c r="E37" s="199"/>
+      <c r="D37" s="208"/>
+      <c r="E37" s="209"/>
     </row>
     <row r="38" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B38" s="77" t="s">
@@ -5004,8 +4870,8 @@
       <c r="C38" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="198"/>
-      <c r="E38" s="199"/>
+      <c r="D38" s="208"/>
+      <c r="E38" s="209"/>
     </row>
     <row r="39" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B39" s="77" t="s">
@@ -5014,8 +4880,8 @@
       <c r="C39" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="198"/>
-      <c r="E39" s="199"/>
+      <c r="D39" s="208"/>
+      <c r="E39" s="209"/>
     </row>
     <row r="40" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B40" s="77" t="s">
@@ -5024,8 +4890,8 @@
       <c r="C40" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="198"/>
-      <c r="E40" s="199"/>
+      <c r="D40" s="208"/>
+      <c r="E40" s="209"/>
     </row>
     <row r="41" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B41" s="77" t="s">
@@ -5034,8 +4900,8 @@
       <c r="C41" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="198"/>
-      <c r="E41" s="199"/>
+      <c r="D41" s="208"/>
+      <c r="E41" s="209"/>
     </row>
     <row r="42" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B42" s="77" t="s">
@@ -5044,8 +4910,8 @@
       <c r="C42" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="198"/>
-      <c r="E42" s="199"/>
+      <c r="D42" s="208"/>
+      <c r="E42" s="209"/>
     </row>
     <row r="43" spans="2:5" ht="403.2" x14ac:dyDescent="0.3">
       <c r="B43" s="77" t="s">
@@ -5054,10 +4920,10 @@
       <c r="C43" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="198" t="s">
+      <c r="D43" s="208" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="199" t="s">
+      <c r="E43" s="209" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5068,8 +4934,8 @@
       <c r="C44" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="198"/>
-      <c r="E44" s="199"/>
+      <c r="D44" s="208"/>
+      <c r="E44" s="209"/>
     </row>
     <row r="45" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B45" s="77" t="s">
@@ -5078,8 +4944,8 @@
       <c r="C45" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="198"/>
-      <c r="E45" s="199"/>
+      <c r="D45" s="208"/>
+      <c r="E45" s="209"/>
     </row>
     <row r="46" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B46" s="77" t="s">
@@ -5088,8 +4954,8 @@
       <c r="C46" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="198"/>
-      <c r="E46" s="199"/>
+      <c r="D46" s="208"/>
+      <c r="E46" s="209"/>
     </row>
     <row r="47" spans="2:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="77" t="s">
@@ -5098,10 +4964,10 @@
       <c r="C47" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="198" t="s">
+      <c r="D47" s="208" t="s">
         <v>74</v>
       </c>
-      <c r="E47" s="199" t="s">
+      <c r="E47" s="209" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5112,8 +4978,8 @@
       <c r="C48" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="198"/>
-      <c r="E48" s="199"/>
+      <c r="D48" s="208"/>
+      <c r="E48" s="209"/>
     </row>
     <row r="49" spans="2:5" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="77" t="s">
@@ -5122,10 +4988,10 @@
       <c r="C49" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="198" t="s">
+      <c r="D49" s="208" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="199" t="s">
+      <c r="E49" s="209" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5136,10 +5002,10 @@
       <c r="C50" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="198" t="s">
+      <c r="D50" s="208" t="s">
         <v>82</v>
       </c>
-      <c r="E50" s="199" t="s">
+      <c r="E50" s="209" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5150,10 +5016,10 @@
       <c r="C51" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="198" t="s">
+      <c r="D51" s="208" t="s">
         <v>86</v>
       </c>
-      <c r="E51" s="199" t="s">
+      <c r="E51" s="209" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5164,8 +5030,8 @@
       <c r="C52" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="198"/>
-      <c r="E52" s="199"/>
+      <c r="D52" s="208"/>
+      <c r="E52" s="209"/>
     </row>
     <row r="53" spans="2:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B53" s="77" t="s">
@@ -5174,8 +5040,8 @@
       <c r="C53" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="D53" s="198"/>
-      <c r="E53" s="199"/>
+      <c r="D53" s="208"/>
+      <c r="E53" s="209"/>
     </row>
     <row r="54" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B54" s="77" t="s">
@@ -5184,8 +5050,8 @@
       <c r="C54" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="D54" s="198"/>
-      <c r="E54" s="199"/>
+      <c r="D54" s="208"/>
+      <c r="E54" s="209"/>
     </row>
     <row r="55" spans="2:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B55" s="77" t="s">
@@ -5194,8 +5060,8 @@
       <c r="C55" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D55" s="198"/>
-      <c r="E55" s="199"/>
+      <c r="D55" s="208"/>
+      <c r="E55" s="209"/>
     </row>
     <row r="56" spans="2:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B56" s="78" t="s">
@@ -5204,8 +5070,8 @@
       <c r="C56" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="198"/>
-      <c r="E56" s="199"/>
+      <c r="D56" s="208"/>
+      <c r="E56" s="209"/>
     </row>
     <row r="57" spans="2:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="79" t="s">
@@ -5214,10 +5080,10 @@
       <c r="C57" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="D57" s="180" t="s">
+      <c r="D57" s="210" t="s">
         <v>98</v>
       </c>
-      <c r="E57" s="181" t="s">
+      <c r="E57" s="211" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5235,44 +5101,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B19:E19"/>
@@ -5289,6 +5117,44 @@
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5298,10 +5164,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Z76"/>
+  <dimension ref="B1:Z72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5383,14 +5249,14 @@
       <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="210"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="185"/>
       <c r="H3" s="10"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -5412,14 +5278,14 @@
       <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="212"/>
-      <c r="G4" s="213"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="188"/>
       <c r="H4" s="10"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -5441,14 +5307,14 @@
       <c r="Z4" s="9"/>
     </row>
     <row r="5" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="208" t="s">
+      <c r="B5" s="183" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="209"/>
-      <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="209"/>
-      <c r="G5" s="210"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="185"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="9"/>
@@ -5470,14 +5336,14 @@
       <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="211" t="s">
+      <c r="B6" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="212"/>
-      <c r="D6" s="212"/>
-      <c r="E6" s="212"/>
-      <c r="F6" s="212"/>
-      <c r="G6" s="213"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="188"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="9"/>
@@ -5499,14 +5365,14 @@
       <c r="Z6" s="9"/>
     </row>
     <row r="7" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="208" t="s">
+      <c r="B7" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="210"/>
+      <c r="C7" s="184"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="185"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -5707,11 +5573,11 @@
       </c>
       <c r="C14" s="117"/>
       <c r="D14" s="117"/>
-      <c r="E14" s="225" t="s">
+      <c r="E14" s="241" t="s">
         <v>191</v>
       </c>
-      <c r="F14" s="226"/>
-      <c r="G14" s="227"/>
+      <c r="F14" s="242"/>
+      <c r="G14" s="243"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -5757,10 +5623,10 @@
       <c r="Y15" s="15"/>
     </row>
     <row r="16" spans="2:26" s="11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="234" t="s">
+      <c r="B16" s="248" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="235"/>
+      <c r="C16" s="249"/>
       <c r="D16" s="125" t="s">
         <v>47</v>
       </c>
@@ -5783,10 +5649,10 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="2:26" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="228" t="s">
+      <c r="B17" s="244" t="s">
         <v>192</v>
       </c>
-      <c r="C17" s="229"/>
+      <c r="C17" s="245"/>
       <c r="D17" s="128" t="s">
         <v>193</v>
       </c>
@@ -5794,7 +5660,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="129" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="G17" s="176">
         <v>45767</v>
@@ -5866,10 +5732,10 @@
       <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="228" t="s">
+      <c r="B20" s="244" t="s">
         <v>194</v>
       </c>
-      <c r="C20" s="229"/>
+      <c r="C20" s="245"/>
       <c r="D20" s="160" t="s">
         <v>195</v>
       </c>
@@ -5921,14 +5787,14 @@
       <c r="Y21" s="15"/>
     </row>
     <row r="22" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="242" t="s">
+      <c r="B22" s="230" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="243"/>
-      <c r="D22" s="243"/>
-      <c r="E22" s="243"/>
-      <c r="F22" s="243"/>
-      <c r="G22" s="244"/>
+      <c r="C22" s="231"/>
+      <c r="D22" s="231"/>
+      <c r="E22" s="231"/>
+      <c r="F22" s="231"/>
+      <c r="G22" s="232"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -6107,10 +5973,10 @@
       </c>
       <c r="D28" s="43"/>
       <c r="E28" s="54"/>
-      <c r="F28" s="245" t="s">
+      <c r="F28" s="233" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="246"/>
+      <c r="G28" s="234"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="20"/>
@@ -6137,8 +6003,8 @@
       <c r="E29" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="245"/>
-      <c r="G29" s="246"/>
+      <c r="F29" s="233"/>
+      <c r="G29" s="234"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="20"/>
@@ -6476,18 +6342,18 @@
       <c r="Y39" s="18"/>
     </row>
     <row r="40" spans="2:26" ht="138.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="230" t="s">
+      <c r="B40" s="239" t="s">
         <v>207</v>
       </c>
-      <c r="C40" s="232"/>
+      <c r="C40" s="240"/>
       <c r="D40" s="171">
         <v>45753</v>
       </c>
       <c r="E40" s="171">
         <v>45767</v>
       </c>
-      <c r="F40" s="179" t="s">
-        <v>227</v>
+      <c r="F40" s="284" t="s">
+        <v>211</v>
       </c>
       <c r="G40" s="169"/>
       <c r="H40" s="20"/>
@@ -6510,10 +6376,10 @@
       <c r="Y40" s="18"/>
     </row>
     <row r="41" spans="2:26" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="233" t="s">
-        <v>210</v>
-      </c>
-      <c r="C41" s="231"/>
+      <c r="B41" s="247" t="s">
+        <v>208</v>
+      </c>
+      <c r="C41" s="246"/>
       <c r="D41" s="172">
         <v>45754</v>
       </c>
@@ -6544,10 +6410,10 @@
       <c r="Y41" s="18"/>
     </row>
     <row r="42" spans="2:26" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="230" t="s">
-        <v>208</v>
-      </c>
-      <c r="C42" s="231"/>
+      <c r="B42" s="239" t="s">
+        <v>212</v>
+      </c>
+      <c r="C42" s="246"/>
       <c r="D42" s="172">
         <v>45754</v>
       </c>
@@ -6577,11 +6443,11 @@
       <c r="X42" s="18"/>
       <c r="Y42" s="18"/>
     </row>
-    <row r="43" spans="2:26" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="230" t="s">
-        <v>209</v>
-      </c>
-      <c r="C43" s="232"/>
+    <row r="43" spans="2:26" ht="236.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="247" t="s">
+        <v>203</v>
+      </c>
+      <c r="C43" s="246"/>
       <c r="D43" s="172">
         <v>45754</v>
       </c>
@@ -6589,7 +6455,7 @@
         <v>45763</v>
       </c>
       <c r="F43" s="170" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G43" s="169"/>
       <c r="H43" s="20"/>
@@ -6611,20 +6477,18 @@
       <c r="X43" s="18"/>
       <c r="Y43" s="18"/>
     </row>
-    <row r="44" spans="2:26" ht="236.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="233" t="s">
-        <v>203</v>
-      </c>
-      <c r="C44" s="231"/>
+    <row r="44" spans="2:26" ht="205.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="247" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" s="246"/>
       <c r="D44" s="172">
         <v>45754</v>
       </c>
       <c r="E44" s="172">
         <v>45763</v>
       </c>
-      <c r="F44" s="170" t="s">
-        <v>217</v>
-      </c>
+      <c r="F44" s="170"/>
       <c r="G44" s="169"/>
       <c r="H44" s="20"/>
       <c r="I44" s="18"/>
@@ -6645,18 +6509,20 @@
       <c r="X44" s="18"/>
       <c r="Y44" s="18"/>
     </row>
-    <row r="45" spans="2:26" ht="205.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="233" t="s">
-        <v>202</v>
-      </c>
-      <c r="C45" s="231"/>
+    <row r="45" spans="2:26" ht="147" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="239" t="s">
+        <v>213</v>
+      </c>
+      <c r="C45" s="246"/>
       <c r="D45" s="172">
-        <v>45754</v>
+        <v>45761</v>
       </c>
       <c r="E45" s="172">
         <v>45763</v>
       </c>
-      <c r="F45" s="170"/>
+      <c r="F45" s="170" t="s">
+        <v>218</v>
+      </c>
       <c r="G45" s="169"/>
       <c r="H45" s="20"/>
       <c r="I45" s="18"/>
@@ -6678,10 +6544,10 @@
       <c r="Y45" s="18"/>
     </row>
     <row r="46" spans="2:26" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="230" t="s">
-        <v>211</v>
-      </c>
-      <c r="C46" s="231"/>
+      <c r="B46" s="239" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" s="240"/>
       <c r="D46" s="172">
         <v>45754</v>
       </c>
@@ -6689,7 +6555,7 @@
         <v>45763</v>
       </c>
       <c r="F46" s="170" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G46" s="169"/>
       <c r="H46" s="20"/>
@@ -6711,11 +6577,11 @@
       <c r="X46" s="18"/>
       <c r="Y46" s="18"/>
     </row>
-    <row r="47" spans="2:26" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="230" t="s">
-        <v>225</v>
-      </c>
-      <c r="C47" s="232"/>
+    <row r="47" spans="2:26" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="239" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" s="246"/>
       <c r="D47" s="172">
         <v>45754</v>
       </c>
@@ -6723,7 +6589,7 @@
         <v>45763</v>
       </c>
       <c r="F47" s="170" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G47" s="169"/>
       <c r="H47" s="20"/>
@@ -6745,21 +6611,15 @@
       <c r="X47" s="18"/>
       <c r="Y47" s="18"/>
     </row>
-    <row r="48" spans="2:26" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="230" t="s">
-        <v>212</v>
-      </c>
-      <c r="C48" s="232"/>
-      <c r="D48" s="172">
-        <v>45754</v>
-      </c>
-      <c r="E48" s="172">
-        <v>45763</v>
-      </c>
-      <c r="F48" s="170" t="s">
-        <v>222</v>
-      </c>
-      <c r="G48" s="169"/>
+    <row r="48" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="27"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
       <c r="H48" s="20"/>
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
@@ -6779,321 +6639,306 @@
       <c r="X48" s="18"/>
       <c r="Y48" s="18"/>
     </row>
-    <row r="49" spans="2:26" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="230" t="s">
-        <v>213</v>
-      </c>
-      <c r="C49" s="232"/>
-      <c r="D49" s="172">
-        <v>45754</v>
-      </c>
-      <c r="E49" s="172">
-        <v>45763</v>
-      </c>
-      <c r="F49" s="170" t="s">
-        <v>224</v>
-      </c>
-      <c r="G49" s="169"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="18"/>
-      <c r="V49" s="18"/>
-      <c r="W49" s="18"/>
-      <c r="X49" s="18"/>
-      <c r="Y49" s="18"/>
-    </row>
-    <row r="50" spans="2:26" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="230" t="s">
-        <v>214</v>
-      </c>
-      <c r="C50" s="232"/>
-      <c r="D50" s="172">
-        <v>45754</v>
-      </c>
-      <c r="E50" s="172">
-        <v>45763</v>
-      </c>
-      <c r="F50" s="170" t="s">
-        <v>219</v>
-      </c>
-      <c r="G50" s="169"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="18"/>
-      <c r="V50" s="18"/>
-      <c r="W50" s="18"/>
-      <c r="X50" s="18"/>
-      <c r="Y50" s="18"/>
-    </row>
-    <row r="51" spans="2:26" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="230" t="s">
-        <v>201</v>
-      </c>
-      <c r="C51" s="231"/>
-      <c r="D51" s="172">
-        <v>45754</v>
-      </c>
-      <c r="E51" s="172">
-        <v>45763</v>
-      </c>
-      <c r="F51" s="170" t="s">
-        <v>220</v>
-      </c>
-      <c r="G51" s="169"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="18"/>
-      <c r="V51" s="18"/>
-      <c r="W51" s="18"/>
-      <c r="X51" s="18"/>
-      <c r="Y51" s="18"/>
-    </row>
-    <row r="52" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="27"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
-      <c r="R52" s="18"/>
-      <c r="S52" s="18"/>
-      <c r="T52" s="18"/>
-      <c r="U52" s="18"/>
-      <c r="V52" s="18"/>
-      <c r="W52" s="18"/>
-      <c r="X52" s="18"/>
-      <c r="Y52" s="18"/>
-    </row>
-    <row r="53" spans="2:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="100"/>
-      <c r="C53" s="101" t="s">
+    <row r="49" spans="2:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="100"/>
+      <c r="C49" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
-      <c r="F53" s="102"/>
-      <c r="G53" s="103"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="22"/>
-      <c r="T53" s="22"/>
-      <c r="U53" s="22"/>
-      <c r="V53" s="22"/>
-      <c r="W53" s="22"/>
-      <c r="X53" s="22"/>
-      <c r="Y53" s="22"/>
-    </row>
-    <row r="54" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="248" t="s">
+      <c r="D49" s="102"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
+    </row>
+    <row r="50" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="236" t="s">
         <v>147</v>
       </c>
-      <c r="C54" s="249"/>
-      <c r="D54" s="249"/>
-      <c r="E54" s="249"/>
-      <c r="F54" s="249"/>
-      <c r="G54" s="250"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="22"/>
-      <c r="T54" s="22"/>
-      <c r="U54" s="22"/>
-      <c r="V54" s="22"/>
-      <c r="W54" s="22"/>
-      <c r="X54" s="22"/>
-      <c r="Y54" s="22"/>
-    </row>
-    <row r="55" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="104" t="s">
+      <c r="C50" s="237"/>
+      <c r="D50" s="237"/>
+      <c r="E50" s="237"/>
+      <c r="F50" s="237"/>
+      <c r="G50" s="238"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="22"/>
+      <c r="X50" s="22"/>
+      <c r="Y50" s="22"/>
+    </row>
+    <row r="51" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="105"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="29"/>
-      <c r="S55" s="29"/>
-      <c r="T55" s="29"/>
-      <c r="U55" s="29"/>
-      <c r="V55" s="29"/>
-      <c r="W55" s="29"/>
-      <c r="X55" s="29"/>
-      <c r="Y55" s="29"/>
-    </row>
-    <row r="56" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="106" t="s">
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="29"/>
+      <c r="V51" s="29"/>
+      <c r="W51" s="29"/>
+      <c r="X51" s="29"/>
+      <c r="Y51" s="29"/>
+    </row>
+    <row r="52" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="106" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="107"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="29"/>
-      <c r="S56" s="29"/>
-      <c r="T56" s="29"/>
-      <c r="U56" s="29"/>
-      <c r="V56" s="29"/>
-      <c r="W56" s="29"/>
-      <c r="X56" s="29"/>
-      <c r="Y56" s="29"/>
-    </row>
-    <row r="57" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="106" t="s">
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="107"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="29"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
+      <c r="X52" s="29"/>
+      <c r="Y52" s="29"/>
+    </row>
+    <row r="53" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="106" t="s">
         <v>150</v>
       </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="107"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="29"/>
-      <c r="S57" s="29"/>
-      <c r="T57" s="29"/>
-      <c r="U57" s="29"/>
-      <c r="V57" s="29"/>
-      <c r="W57" s="29"/>
-      <c r="X57" s="29"/>
-      <c r="Y57" s="29"/>
-    </row>
-    <row r="58" spans="2:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="106" t="s">
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="107"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="29"/>
+      <c r="U53" s="29"/>
+      <c r="V53" s="29"/>
+      <c r="W53" s="29"/>
+      <c r="X53" s="29"/>
+      <c r="Y53" s="29"/>
+    </row>
+    <row r="54" spans="2:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="106" t="s">
         <v>151</v>
       </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="107"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="29"/>
-      <c r="R58" s="29"/>
-      <c r="S58" s="29"/>
-      <c r="T58" s="29"/>
-      <c r="U58" s="29"/>
-      <c r="V58" s="29"/>
-      <c r="W58" s="29"/>
-      <c r="X58" s="29"/>
-      <c r="Y58" s="29"/>
-    </row>
-    <row r="59" spans="2:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="111" t="s">
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="107"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="29"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="29"/>
+      <c r="U54" s="29"/>
+      <c r="V54" s="29"/>
+      <c r="W54" s="29"/>
+      <c r="X54" s="29"/>
+      <c r="Y54" s="29"/>
+    </row>
+    <row r="55" spans="2:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="112" t="s">
+      <c r="C55" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="D59" s="113" t="s">
+      <c r="D55" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="E59" s="114" t="s">
+      <c r="E55" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="F59" s="113" t="s">
+      <c r="F55" s="113" t="s">
         <v>152</v>
       </c>
-      <c r="G59" s="115" t="s">
+      <c r="G55" s="115" t="s">
         <v>200</v>
       </c>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="18"/>
+      <c r="X55" s="18"/>
+      <c r="Y55" s="18"/>
+      <c r="Z55" s="18"/>
+    </row>
+    <row r="56" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="162" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="163">
+        <v>1</v>
+      </c>
+      <c r="D56" s="108"/>
+      <c r="E56" s="109"/>
+      <c r="F56" s="108"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="18"/>
+      <c r="V56" s="18"/>
+      <c r="W56" s="18"/>
+      <c r="X56" s="18"/>
+      <c r="Y56" s="18"/>
+      <c r="Z56" s="18"/>
+    </row>
+    <row r="57" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="18"/>
+      <c r="U57" s="18"/>
+      <c r="V57" s="18"/>
+      <c r="W57" s="18"/>
+      <c r="X57" s="18"/>
+      <c r="Y57" s="18"/>
+      <c r="Z57" s="18"/>
+    </row>
+    <row r="58" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="30"/>
+      <c r="D58" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="18"/>
+      <c r="U58" s="18"/>
+      <c r="V58" s="18"/>
+      <c r="W58" s="18"/>
+      <c r="X58" s="18"/>
+      <c r="Y58" s="18"/>
+      <c r="Z58" s="18"/>
+    </row>
+    <row r="59" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
       <c r="H59" s="18"/>
       <c r="I59" s="18"/>
       <c r="J59" s="18"/>
@@ -7114,17 +6959,13 @@
       <c r="Y59" s="18"/>
       <c r="Z59" s="18"/>
     </row>
-    <row r="60" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="162" t="s">
-        <v>198</v>
-      </c>
-      <c r="C60" s="163">
-        <v>1</v>
-      </c>
-      <c r="D60" s="108"/>
-      <c r="E60" s="109"/>
-      <c r="F60" s="108"/>
-      <c r="G60" s="110"/>
+    <row r="60" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
       <c r="H60" s="18"/>
       <c r="I60" s="18"/>
       <c r="J60" s="18"/>
@@ -7145,13 +6986,14 @@
       <c r="Y60" s="18"/>
       <c r="Z60" s="18"/>
     </row>
-    <row r="61" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
+    <row r="61" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="33"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="33"/>
+      <c r="F61" s="173">
+        <v>45724</v>
+      </c>
+      <c r="G61" s="18"/>
       <c r="H61" s="18"/>
       <c r="I61" s="18"/>
       <c r="J61" s="18"/>
@@ -7173,13 +7015,15 @@
       <c r="Z61" s="18"/>
     </row>
     <row r="62" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="30"/>
-      <c r="D62" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
+      <c r="B62" s="235" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="235"/>
+      <c r="D62" s="235"/>
+      <c r="F62" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G62" s="18"/>
       <c r="H62" s="18"/>
       <c r="I62" s="18"/>
       <c r="J62" s="18"/>
@@ -7200,13 +7044,12 @@
       <c r="Y62" s="18"/>
       <c r="Z62" s="18"/>
     </row>
-    <row r="63" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
+    <row r="63" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B63" s="9"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="9"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
       <c r="H63" s="18"/>
       <c r="I63" s="18"/>
       <c r="J63" s="18"/>
@@ -7228,12 +7071,11 @@
       <c r="Z63" s="18"/>
     </row>
     <row r="64" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="9"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="18"/>
       <c r="H64" s="18"/>
       <c r="I64" s="18"/>
       <c r="J64" s="18"/>
@@ -7258,10 +7100,8 @@
       <c r="B65" s="33"/>
       <c r="C65" s="34"/>
       <c r="D65" s="33"/>
-      <c r="F65" s="173">
-        <v>45724</v>
-      </c>
-      <c r="G65" s="18"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="34"/>
       <c r="H65" s="18"/>
       <c r="I65" s="18"/>
       <c r="J65" s="18"/>
@@ -7282,16 +7122,16 @@
       <c r="Y65" s="18"/>
       <c r="Z65" s="18"/>
     </row>
-    <row r="66" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="247" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66" s="247"/>
-      <c r="D66" s="247"/>
-      <c r="F66" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="G66" s="18"/>
+    <row r="66" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="9"/>
+      <c r="C66" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="F66" s="235" t="s">
+        <v>154</v>
+      </c>
+      <c r="G66" s="235"/>
       <c r="H66" s="18"/>
       <c r="I66" s="18"/>
       <c r="J66" s="18"/>
@@ -7312,12 +7152,15 @@
       <c r="Y66" s="18"/>
       <c r="Z66" s="18"/>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B67" s="9"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="9"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
+    <row r="67" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
       <c r="H67" s="18"/>
       <c r="I67" s="18"/>
       <c r="J67" s="18"/>
@@ -7338,12 +7181,13 @@
       <c r="Y67" s="18"/>
       <c r="Z67" s="18"/>
     </row>
-    <row r="68" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="9"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="9"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="18"/>
+    <row r="68" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
       <c r="H68" s="18"/>
       <c r="I68" s="18"/>
       <c r="J68" s="18"/>
@@ -7364,256 +7208,136 @@
       <c r="Y68" s="18"/>
       <c r="Z68" s="18"/>
     </row>
-    <row r="69" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="33"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="33"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="18"/>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="18"/>
-      <c r="R69" s="18"/>
-      <c r="S69" s="18"/>
-      <c r="T69" s="18"/>
-      <c r="U69" s="18"/>
-      <c r="V69" s="18"/>
-      <c r="W69" s="18"/>
-      <c r="X69" s="18"/>
-      <c r="Y69" s="18"/>
-      <c r="Z69" s="18"/>
-    </row>
-    <row r="70" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="9"/>
-      <c r="C70" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D70" s="9"/>
-      <c r="F70" s="247" t="s">
-        <v>154</v>
-      </c>
-      <c r="G70" s="247"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="18"/>
-      <c r="P70" s="18"/>
-      <c r="Q70" s="18"/>
-      <c r="R70" s="18"/>
-      <c r="S70" s="18"/>
-      <c r="T70" s="18"/>
-      <c r="U70" s="18"/>
-      <c r="V70" s="18"/>
-      <c r="W70" s="18"/>
-      <c r="X70" s="18"/>
-      <c r="Y70" s="18"/>
-      <c r="Z70" s="18"/>
-    </row>
-    <row r="71" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="18"/>
-      <c r="P71" s="18"/>
-      <c r="Q71" s="18"/>
-      <c r="R71" s="18"/>
-      <c r="S71" s="18"/>
-      <c r="T71" s="18"/>
-      <c r="U71" s="18"/>
-      <c r="V71" s="18"/>
-      <c r="W71" s="18"/>
-      <c r="X71" s="18"/>
-      <c r="Y71" s="18"/>
-      <c r="Z71" s="18"/>
-    </row>
-    <row r="72" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="18"/>
-      <c r="P72" s="18"/>
-      <c r="Q72" s="18"/>
-      <c r="R72" s="18"/>
-      <c r="S72" s="18"/>
-      <c r="T72" s="18"/>
-      <c r="U72" s="18"/>
-      <c r="V72" s="18"/>
-      <c r="W72" s="18"/>
-      <c r="X72" s="18"/>
-      <c r="Y72" s="18"/>
-      <c r="Z72" s="18"/>
-    </row>
-    <row r="73" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="236" t="s">
+    <row r="69" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="224" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="237"/>
-      <c r="D73" s="237"/>
-      <c r="E73" s="237"/>
-      <c r="F73" s="237"/>
-      <c r="G73" s="238"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="9"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="9"/>
-      <c r="S73" s="9"/>
-      <c r="T73" s="9"/>
-      <c r="U73" s="9"/>
-      <c r="V73" s="9"/>
-      <c r="W73" s="9"/>
-      <c r="X73" s="9"/>
-      <c r="Y73" s="9"/>
-      <c r="Z73" s="9"/>
-    </row>
-    <row r="74" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="239" t="s">
+      <c r="C69" s="225"/>
+      <c r="D69" s="225"/>
+      <c r="E69" s="225"/>
+      <c r="F69" s="225"/>
+      <c r="G69" s="226"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="9"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="9"/>
+    </row>
+    <row r="70" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="227" t="s">
         <v>157</v>
       </c>
-      <c r="C74" s="240"/>
-      <c r="D74" s="240"/>
-      <c r="E74" s="240"/>
-      <c r="F74" s="240"/>
-      <c r="G74" s="241"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="9"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="9"/>
-      <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
-      <c r="X74" s="9"/>
-      <c r="Y74" s="9"/>
-      <c r="Z74" s="9"/>
-    </row>
-    <row r="75" spans="2:26" s="10" customFormat="1" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="116"/>
-      <c r="C75" s="117"/>
-      <c r="D75" s="117"/>
-      <c r="E75" s="117"/>
-      <c r="F75" s="117"/>
-      <c r="G75" s="118"/>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="H76" s="10"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="9"/>
-      <c r="S76" s="9"/>
-      <c r="T76" s="9"/>
-      <c r="U76" s="9"/>
-      <c r="V76" s="9"/>
-      <c r="W76" s="9"/>
-      <c r="X76" s="9"/>
-      <c r="Y76" s="9"/>
-      <c r="Z76" s="9"/>
+      <c r="C70" s="228"/>
+      <c r="D70" s="228"/>
+      <c r="E70" s="228"/>
+      <c r="F70" s="228"/>
+      <c r="G70" s="229"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="9"/>
+      <c r="Y70" s="9"/>
+      <c r="Z70" s="9"/>
+    </row>
+    <row r="71" spans="2:26" s="10" customFormat="1" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="116"/>
+      <c r="C71" s="117"/>
+      <c r="D71" s="117"/>
+      <c r="E71" s="117"/>
+      <c r="F71" s="117"/>
+      <c r="G71" s="118"/>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="H72" s="10"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="9"/>
+      <c r="Y72" s="9"/>
+      <c r="Z72" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
+  <mergeCells count="25">
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F11" r:id="rId1"/>
     <hyperlink ref="G11" r:id="rId2"/>
     <hyperlink ref="F20" r:id="rId3"/>
     <hyperlink ref="F23" r:id="rId4"/>
-    <hyperlink ref="F41" r:id="rId5" display="https://n9.cl/qpnl7k"/>
-    <hyperlink ref="F42" r:id="rId6" display="https://n9.cl/qpnl7k"/>
-    <hyperlink ref="F44" r:id="rId7" display="https://n9.cl/qpnl7k"/>
-    <hyperlink ref="F46" r:id="rId8" display="https://n9.cl/qpnl7k"/>
-    <hyperlink ref="F50" r:id="rId9" display="https://n9.cl/qpnl7k"/>
-    <hyperlink ref="F51" r:id="rId10" display="https://n9.cl/qpnl7k"/>
-    <hyperlink ref="F43" r:id="rId11" display="https://n9.cl/t2wih"/>
-    <hyperlink ref="F48" r:id="rId12" display="https://n9.cl/nx4sq"/>
-    <hyperlink ref="F47" r:id="rId13" display="https://n9.cl/qpnl7k"/>
-    <hyperlink ref="F49" r:id="rId14" display="https://n9.cl/3nt167"/>
+    <hyperlink ref="F46" r:id="rId5" display="https://n9.cl/q5iep"/>
+    <hyperlink ref="F47" r:id="rId6" display="https://n9.cl/8jjes"/>
+    <hyperlink ref="F45" r:id="rId7" display="https://n9.cl/8jjes"/>
+    <hyperlink ref="F43" r:id="rId8" display="https://n9.cl/8jjes"/>
+    <hyperlink ref="F42" r:id="rId9" display="https://n9.cl/8jjes"/>
+    <hyperlink ref="F41" r:id="rId10" display="https://n9.cl/8jjes"/>
   </hyperlinks>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="80" orientation="landscape" horizontalDpi="4294967294" r:id="rId15"/>
-  <drawing r:id="rId16"/>
+  <pageSetup scale="80" orientation="landscape" horizontalDpi="4294967294" r:id="rId11"/>
+  <drawing r:id="rId12"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -7720,124 +7444,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="277" t="s">
+      <c r="A1" s="250" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="277"/>
-      <c r="C1" s="277"/>
-      <c r="D1" s="277"/>
-      <c r="E1" s="277"/>
-      <c r="F1" s="277"/>
-      <c r="G1" s="277"/>
-      <c r="H1" s="277"/>
-      <c r="I1" s="277"/>
-      <c r="J1" s="277"/>
-      <c r="K1" s="277"/>
-      <c r="L1" s="277"/>
-      <c r="M1" s="277"/>
-      <c r="N1" s="277"/>
-      <c r="O1" s="277"/>
-      <c r="P1" s="277"/>
-      <c r="Q1" s="277"/>
-      <c r="R1" s="277"/>
-      <c r="S1" s="277"/>
-      <c r="T1" s="277"/>
-      <c r="U1" s="277" t="s">
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
+      <c r="N1" s="250"/>
+      <c r="O1" s="250"/>
+      <c r="P1" s="250"/>
+      <c r="Q1" s="250"/>
+      <c r="R1" s="250"/>
+      <c r="S1" s="250"/>
+      <c r="T1" s="250"/>
+      <c r="U1" s="250" t="s">
         <v>159</v>
       </c>
-      <c r="V1" s="277"/>
-      <c r="W1" s="277"/>
-      <c r="X1" s="277"/>
+      <c r="V1" s="250"/>
+      <c r="W1" s="250"/>
+      <c r="X1" s="250"/>
     </row>
     <row r="2" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="277"/>
-      <c r="B2" s="277"/>
-      <c r="C2" s="277"/>
-      <c r="D2" s="277"/>
-      <c r="E2" s="277"/>
-      <c r="F2" s="277"/>
-      <c r="G2" s="277"/>
-      <c r="H2" s="277"/>
-      <c r="I2" s="277"/>
-      <c r="J2" s="277"/>
-      <c r="K2" s="277"/>
-      <c r="L2" s="277"/>
-      <c r="M2" s="277"/>
-      <c r="N2" s="277"/>
-      <c r="O2" s="277"/>
-      <c r="P2" s="277"/>
-      <c r="Q2" s="277"/>
-      <c r="R2" s="277"/>
-      <c r="S2" s="277"/>
-      <c r="T2" s="277"/>
-      <c r="U2" s="257" t="s">
+      <c r="A2" s="250"/>
+      <c r="B2" s="250"/>
+      <c r="C2" s="250"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="250"/>
+      <c r="M2" s="250"/>
+      <c r="N2" s="250"/>
+      <c r="O2" s="250"/>
+      <c r="P2" s="250"/>
+      <c r="Q2" s="250"/>
+      <c r="R2" s="250"/>
+      <c r="S2" s="250"/>
+      <c r="T2" s="250"/>
+      <c r="U2" s="258" t="s">
         <v>160</v>
       </c>
-      <c r="V2" s="257"/>
-      <c r="W2" s="257"/>
-      <c r="X2" s="257"/>
+      <c r="V2" s="258"/>
+      <c r="W2" s="258"/>
+      <c r="X2" s="258"/>
     </row>
     <row r="3" spans="1:24" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="U3" s="284"/>
-      <c r="V3" s="284"/>
-      <c r="W3" s="284"/>
-      <c r="X3" s="284"/>
+      <c r="U3" s="259"/>
+      <c r="V3" s="259"/>
+      <c r="W3" s="259"/>
+      <c r="X3" s="259"/>
     </row>
     <row r="4" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="281" t="s">
+      <c r="A4" s="255" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="282"/>
-      <c r="C4" s="282"/>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="282"/>
-      <c r="J4" s="282"/>
-      <c r="K4" s="282"/>
-      <c r="L4" s="282"/>
-      <c r="M4" s="283"/>
-      <c r="N4" s="281" t="s">
+      <c r="B4" s="256"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="256"/>
+      <c r="F4" s="256"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="256"/>
+      <c r="M4" s="257"/>
+      <c r="N4" s="255" t="s">
         <v>162</v>
       </c>
-      <c r="O4" s="282"/>
-      <c r="P4" s="282"/>
-      <c r="Q4" s="282"/>
-      <c r="R4" s="282"/>
-      <c r="S4" s="282"/>
-      <c r="T4" s="282"/>
-      <c r="U4" s="282"/>
-      <c r="V4" s="282"/>
-      <c r="W4" s="282"/>
-      <c r="X4" s="283"/>
+      <c r="O4" s="256"/>
+      <c r="P4" s="256"/>
+      <c r="Q4" s="256"/>
+      <c r="R4" s="256"/>
+      <c r="S4" s="256"/>
+      <c r="T4" s="256"/>
+      <c r="U4" s="256"/>
+      <c r="V4" s="256"/>
+      <c r="W4" s="256"/>
+      <c r="X4" s="257"/>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="278"/>
-      <c r="B5" s="279"/>
-      <c r="C5" s="279"/>
-      <c r="D5" s="279"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="279"/>
-      <c r="H5" s="279"/>
-      <c r="I5" s="279"/>
-      <c r="J5" s="279"/>
-      <c r="K5" s="279"/>
-      <c r="L5" s="279"/>
-      <c r="M5" s="280"/>
-      <c r="N5" s="278"/>
-      <c r="O5" s="279"/>
-      <c r="P5" s="279"/>
-      <c r="Q5" s="279"/>
-      <c r="R5" s="279"/>
-      <c r="S5" s="279"/>
-      <c r="T5" s="279"/>
-      <c r="U5" s="279"/>
-      <c r="V5" s="279"/>
-      <c r="W5" s="279"/>
-      <c r="X5" s="280"/>
+      <c r="A5" s="252"/>
+      <c r="B5" s="253"/>
+      <c r="C5" s="253"/>
+      <c r="D5" s="253"/>
+      <c r="E5" s="253"/>
+      <c r="F5" s="253"/>
+      <c r="G5" s="253"/>
+      <c r="H5" s="253"/>
+      <c r="I5" s="253"/>
+      <c r="J5" s="253"/>
+      <c r="K5" s="253"/>
+      <c r="L5" s="253"/>
+      <c r="M5" s="254"/>
+      <c r="N5" s="252"/>
+      <c r="O5" s="253"/>
+      <c r="P5" s="253"/>
+      <c r="Q5" s="253"/>
+      <c r="R5" s="253"/>
+      <c r="S5" s="253"/>
+      <c r="T5" s="253"/>
+      <c r="U5" s="253"/>
+      <c r="V5" s="253"/>
+      <c r="W5" s="253"/>
+      <c r="X5" s="254"/>
     </row>
     <row r="6" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
@@ -7866,66 +7590,66 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="255" t="s">
+      <c r="A7" s="251" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="255"/>
-      <c r="C7" s="255"/>
-      <c r="D7" s="255"/>
-      <c r="E7" s="255"/>
-      <c r="F7" s="255"/>
-      <c r="G7" s="255"/>
-      <c r="H7" s="255"/>
-      <c r="I7" s="255"/>
-      <c r="J7" s="255" t="s">
+      <c r="B7" s="251"/>
+      <c r="C7" s="251"/>
+      <c r="D7" s="251"/>
+      <c r="E7" s="251"/>
+      <c r="F7" s="251"/>
+      <c r="G7" s="251"/>
+      <c r="H7" s="251"/>
+      <c r="I7" s="251"/>
+      <c r="J7" s="251" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="255"/>
-      <c r="L7" s="255"/>
-      <c r="M7" s="255"/>
-      <c r="N7" s="255"/>
-      <c r="O7" s="255"/>
-      <c r="P7" s="255" t="s">
+      <c r="K7" s="251"/>
+      <c r="L7" s="251"/>
+      <c r="M7" s="251"/>
+      <c r="N7" s="251"/>
+      <c r="O7" s="251"/>
+      <c r="P7" s="251" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
-      <c r="T7" s="255"/>
-      <c r="U7" s="255"/>
-      <c r="V7" s="255"/>
-      <c r="W7" s="255"/>
-      <c r="X7" s="255"/>
+      <c r="Q7" s="251"/>
+      <c r="R7" s="251"/>
+      <c r="S7" s="251"/>
+      <c r="T7" s="251"/>
+      <c r="U7" s="251"/>
+      <c r="V7" s="251"/>
+      <c r="W7" s="251"/>
+      <c r="X7" s="251"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="262"/>
-      <c r="B8" s="262"/>
-      <c r="C8" s="262"/>
-      <c r="D8" s="262"/>
-      <c r="E8" s="262"/>
-      <c r="F8" s="262"/>
-      <c r="G8" s="262"/>
-      <c r="H8" s="262"/>
-      <c r="I8" s="262"/>
-      <c r="J8" s="263" t="s">
+      <c r="A8" s="260"/>
+      <c r="B8" s="260"/>
+      <c r="C8" s="260"/>
+      <c r="D8" s="260"/>
+      <c r="E8" s="260"/>
+      <c r="F8" s="260"/>
+      <c r="G8" s="260"/>
+      <c r="H8" s="260"/>
+      <c r="I8" s="260"/>
+      <c r="J8" s="261" t="s">
         <v>164</v>
       </c>
-      <c r="K8" s="264"/>
-      <c r="L8" s="264"/>
-      <c r="M8" s="264"/>
-      <c r="N8" s="264"/>
-      <c r="O8" s="265"/>
-      <c r="P8" s="263" t="s">
+      <c r="K8" s="262"/>
+      <c r="L8" s="262"/>
+      <c r="M8" s="262"/>
+      <c r="N8" s="262"/>
+      <c r="O8" s="263"/>
+      <c r="P8" s="261" t="s">
         <v>165</v>
       </c>
-      <c r="Q8" s="264"/>
-      <c r="R8" s="264"/>
-      <c r="S8" s="264"/>
-      <c r="T8" s="264"/>
-      <c r="U8" s="264"/>
-      <c r="V8" s="264"/>
-      <c r="W8" s="264"/>
-      <c r="X8" s="265"/>
+      <c r="Q8" s="262"/>
+      <c r="R8" s="262"/>
+      <c r="S8" s="262"/>
+      <c r="T8" s="262"/>
+      <c r="U8" s="262"/>
+      <c r="V8" s="262"/>
+      <c r="W8" s="262"/>
+      <c r="X8" s="263"/>
     </row>
     <row r="9" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -7954,66 +7678,66 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="275" t="s">
+      <c r="A10" s="264" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="275"/>
-      <c r="C10" s="275"/>
-      <c r="D10" s="275"/>
-      <c r="E10" s="275"/>
-      <c r="F10" s="275"/>
-      <c r="G10" s="275"/>
-      <c r="H10" s="275"/>
-      <c r="I10" s="275"/>
-      <c r="J10" s="275"/>
-      <c r="K10" s="275"/>
-      <c r="L10" s="275"/>
-      <c r="M10" s="275"/>
-      <c r="N10" s="275"/>
-      <c r="O10" s="275"/>
-      <c r="P10" s="275"/>
-      <c r="Q10" s="275"/>
-      <c r="R10" s="275"/>
-      <c r="S10" s="275"/>
-      <c r="T10" s="275"/>
-      <c r="U10" s="275"/>
-      <c r="V10" s="275"/>
-      <c r="W10" s="275"/>
-      <c r="X10" s="275"/>
+      <c r="B10" s="264"/>
+      <c r="C10" s="264"/>
+      <c r="D10" s="264"/>
+      <c r="E10" s="264"/>
+      <c r="F10" s="264"/>
+      <c r="G10" s="264"/>
+      <c r="H10" s="264"/>
+      <c r="I10" s="264"/>
+      <c r="J10" s="264"/>
+      <c r="K10" s="264"/>
+      <c r="L10" s="264"/>
+      <c r="M10" s="264"/>
+      <c r="N10" s="264"/>
+      <c r="O10" s="264"/>
+      <c r="P10" s="264"/>
+      <c r="Q10" s="264"/>
+      <c r="R10" s="264"/>
+      <c r="S10" s="264"/>
+      <c r="T10" s="264"/>
+      <c r="U10" s="264"/>
+      <c r="V10" s="264"/>
+      <c r="W10" s="264"/>
+      <c r="X10" s="264"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="276" t="s">
+      <c r="A11" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="276"/>
-      <c r="C11" s="276"/>
-      <c r="D11" s="276"/>
-      <c r="E11" s="276"/>
-      <c r="F11" s="276"/>
-      <c r="G11" s="276" t="s">
+      <c r="B11" s="265"/>
+      <c r="C11" s="265"/>
+      <c r="D11" s="265"/>
+      <c r="E11" s="265"/>
+      <c r="F11" s="265"/>
+      <c r="G11" s="265" t="s">
         <v>167</v>
       </c>
-      <c r="H11" s="276"/>
-      <c r="I11" s="276"/>
-      <c r="J11" s="276"/>
-      <c r="K11" s="276"/>
-      <c r="L11" s="276"/>
-      <c r="M11" s="276" t="s">
+      <c r="H11" s="265"/>
+      <c r="I11" s="265"/>
+      <c r="J11" s="265"/>
+      <c r="K11" s="265"/>
+      <c r="L11" s="265"/>
+      <c r="M11" s="265" t="s">
         <v>168</v>
       </c>
-      <c r="N11" s="276"/>
-      <c r="O11" s="276"/>
-      <c r="P11" s="276"/>
-      <c r="Q11" s="276"/>
-      <c r="R11" s="276"/>
-      <c r="S11" s="276" t="s">
+      <c r="N11" s="265"/>
+      <c r="O11" s="265"/>
+      <c r="P11" s="265"/>
+      <c r="Q11" s="265"/>
+      <c r="R11" s="265"/>
+      <c r="S11" s="265" t="s">
         <v>169</v>
       </c>
-      <c r="T11" s="276"/>
-      <c r="U11" s="276"/>
-      <c r="V11" s="276"/>
-      <c r="W11" s="276"/>
-      <c r="X11" s="276"/>
+      <c r="T11" s="265"/>
+      <c r="U11" s="265"/>
+      <c r="V11" s="265"/>
+      <c r="W11" s="265"/>
+      <c r="X11" s="265"/>
     </row>
     <row r="12" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -8042,66 +7766,66 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="255" t="s">
+      <c r="A13" s="251" t="s">
         <v>170</v>
       </c>
-      <c r="B13" s="255"/>
-      <c r="C13" s="255"/>
-      <c r="D13" s="255"/>
-      <c r="E13" s="255"/>
-      <c r="F13" s="255"/>
-      <c r="G13" s="255"/>
-      <c r="H13" s="255"/>
-      <c r="I13" s="255"/>
-      <c r="J13" s="255" t="s">
+      <c r="B13" s="251"/>
+      <c r="C13" s="251"/>
+      <c r="D13" s="251"/>
+      <c r="E13" s="251"/>
+      <c r="F13" s="251"/>
+      <c r="G13" s="251"/>
+      <c r="H13" s="251"/>
+      <c r="I13" s="251"/>
+      <c r="J13" s="251" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="255"/>
-      <c r="L13" s="255"/>
-      <c r="M13" s="255"/>
-      <c r="N13" s="255"/>
-      <c r="O13" s="255"/>
-      <c r="P13" s="255" t="s">
+      <c r="K13" s="251"/>
+      <c r="L13" s="251"/>
+      <c r="M13" s="251"/>
+      <c r="N13" s="251"/>
+      <c r="O13" s="251"/>
+      <c r="P13" s="251" t="s">
         <v>58</v>
       </c>
-      <c r="Q13" s="255"/>
-      <c r="R13" s="255"/>
-      <c r="S13" s="255"/>
-      <c r="T13" s="255"/>
-      <c r="U13" s="255"/>
-      <c r="V13" s="255"/>
-      <c r="W13" s="255"/>
-      <c r="X13" s="255"/>
+      <c r="Q13" s="251"/>
+      <c r="R13" s="251"/>
+      <c r="S13" s="251"/>
+      <c r="T13" s="251"/>
+      <c r="U13" s="251"/>
+      <c r="V13" s="251"/>
+      <c r="W13" s="251"/>
+      <c r="X13" s="251"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="262"/>
-      <c r="B14" s="262"/>
-      <c r="C14" s="262"/>
-      <c r="D14" s="262"/>
-      <c r="E14" s="262"/>
-      <c r="F14" s="262"/>
-      <c r="G14" s="262"/>
-      <c r="H14" s="262"/>
-      <c r="I14" s="262"/>
-      <c r="J14" s="263" t="s">
+      <c r="A14" s="260"/>
+      <c r="B14" s="260"/>
+      <c r="C14" s="260"/>
+      <c r="D14" s="260"/>
+      <c r="E14" s="260"/>
+      <c r="F14" s="260"/>
+      <c r="G14" s="260"/>
+      <c r="H14" s="260"/>
+      <c r="I14" s="260"/>
+      <c r="J14" s="261" t="s">
         <v>171</v>
       </c>
-      <c r="K14" s="264"/>
-      <c r="L14" s="264"/>
-      <c r="M14" s="264"/>
-      <c r="N14" s="264"/>
-      <c r="O14" s="265"/>
-      <c r="P14" s="263" t="s">
+      <c r="K14" s="262"/>
+      <c r="L14" s="262"/>
+      <c r="M14" s="262"/>
+      <c r="N14" s="262"/>
+      <c r="O14" s="263"/>
+      <c r="P14" s="261" t="s">
         <v>172</v>
       </c>
-      <c r="Q14" s="264"/>
-      <c r="R14" s="264"/>
-      <c r="S14" s="264"/>
-      <c r="T14" s="264"/>
-      <c r="U14" s="264"/>
-      <c r="V14" s="264"/>
-      <c r="W14" s="264"/>
-      <c r="X14" s="265"/>
+      <c r="Q14" s="262"/>
+      <c r="R14" s="262"/>
+      <c r="S14" s="262"/>
+      <c r="T14" s="262"/>
+      <c r="U14" s="262"/>
+      <c r="V14" s="262"/>
+      <c r="W14" s="262"/>
+      <c r="X14" s="263"/>
     </row>
     <row r="15" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
@@ -8130,184 +7854,172 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="266" t="s">
+      <c r="A16" s="271" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="266"/>
-      <c r="C16" s="266"/>
-      <c r="D16" s="266"/>
-      <c r="E16" s="266"/>
-      <c r="F16" s="266"/>
-      <c r="G16" s="266"/>
-      <c r="H16" s="266"/>
-      <c r="I16" s="266"/>
-      <c r="J16" s="267" t="s">
+      <c r="B16" s="271"/>
+      <c r="C16" s="271"/>
+      <c r="D16" s="271"/>
+      <c r="E16" s="271"/>
+      <c r="F16" s="271"/>
+      <c r="G16" s="271"/>
+      <c r="H16" s="271"/>
+      <c r="I16" s="271"/>
+      <c r="J16" s="272" t="s">
         <v>174</v>
       </c>
-      <c r="K16" s="267"/>
-      <c r="L16" s="267"/>
-      <c r="M16" s="267"/>
-      <c r="N16" s="266" t="s">
+      <c r="K16" s="272"/>
+      <c r="L16" s="272"/>
+      <c r="M16" s="272"/>
+      <c r="N16" s="271" t="s">
         <v>175</v>
       </c>
-      <c r="O16" s="266"/>
-      <c r="P16" s="266"/>
-      <c r="Q16" s="266"/>
-      <c r="R16" s="266"/>
-      <c r="S16" s="266"/>
-      <c r="T16" s="268" t="s">
+      <c r="O16" s="271"/>
+      <c r="P16" s="271"/>
+      <c r="Q16" s="271"/>
+      <c r="R16" s="271"/>
+      <c r="S16" s="271"/>
+      <c r="T16" s="273" t="s">
         <v>176</v>
       </c>
-      <c r="U16" s="268"/>
-      <c r="V16" s="268"/>
-      <c r="W16" s="268"/>
-      <c r="X16" s="268"/>
+      <c r="U16" s="273"/>
+      <c r="V16" s="273"/>
+      <c r="W16" s="273"/>
+      <c r="X16" s="273"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="256" t="s">
+      <c r="A17" s="266" t="s">
         <v>177</v>
       </c>
-      <c r="B17" s="257"/>
-      <c r="C17" s="257"/>
-      <c r="D17" s="257"/>
-      <c r="E17" s="257"/>
-      <c r="F17" s="257"/>
-      <c r="G17" s="257"/>
-      <c r="H17" s="257"/>
-      <c r="I17" s="258"/>
-      <c r="J17" s="269" t="s">
+      <c r="B17" s="258"/>
+      <c r="C17" s="258"/>
+      <c r="D17" s="258"/>
+      <c r="E17" s="258"/>
+      <c r="F17" s="258"/>
+      <c r="G17" s="258"/>
+      <c r="H17" s="258"/>
+      <c r="I17" s="267"/>
+      <c r="J17" s="274" t="s">
         <v>178</v>
       </c>
-      <c r="K17" s="270"/>
-      <c r="L17" s="270"/>
-      <c r="M17" s="271"/>
-      <c r="N17" s="256" t="s">
+      <c r="K17" s="275"/>
+      <c r="L17" s="275"/>
+      <c r="M17" s="276"/>
+      <c r="N17" s="266" t="s">
         <v>179</v>
       </c>
-      <c r="O17" s="257"/>
-      <c r="P17" s="257"/>
-      <c r="Q17" s="257"/>
-      <c r="R17" s="257"/>
-      <c r="S17" s="258"/>
-      <c r="T17" s="256" t="s">
+      <c r="O17" s="258"/>
+      <c r="P17" s="258"/>
+      <c r="Q17" s="258"/>
+      <c r="R17" s="258"/>
+      <c r="S17" s="267"/>
+      <c r="T17" s="266" t="s">
         <v>180</v>
       </c>
-      <c r="U17" s="257"/>
-      <c r="V17" s="257"/>
-      <c r="W17" s="257"/>
-      <c r="X17" s="258"/>
+      <c r="U17" s="258"/>
+      <c r="V17" s="258"/>
+      <c r="W17" s="258"/>
+      <c r="X17" s="267"/>
     </row>
     <row r="18" spans="1:24" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="259"/>
-      <c r="B18" s="260"/>
-      <c r="C18" s="260"/>
-      <c r="D18" s="260"/>
-      <c r="E18" s="260"/>
-      <c r="F18" s="260"/>
-      <c r="G18" s="260"/>
-      <c r="H18" s="260"/>
-      <c r="I18" s="261"/>
-      <c r="J18" s="272"/>
-      <c r="K18" s="273"/>
-      <c r="L18" s="273"/>
-      <c r="M18" s="274"/>
-      <c r="N18" s="259"/>
-      <c r="O18" s="260"/>
-      <c r="P18" s="260"/>
-      <c r="Q18" s="260"/>
-      <c r="R18" s="260"/>
-      <c r="S18" s="261"/>
-      <c r="T18" s="259"/>
-      <c r="U18" s="260"/>
-      <c r="V18" s="260"/>
-      <c r="W18" s="260"/>
-      <c r="X18" s="261"/>
+      <c r="A18" s="268"/>
+      <c r="B18" s="269"/>
+      <c r="C18" s="269"/>
+      <c r="D18" s="269"/>
+      <c r="E18" s="269"/>
+      <c r="F18" s="269"/>
+      <c r="G18" s="269"/>
+      <c r="H18" s="269"/>
+      <c r="I18" s="270"/>
+      <c r="J18" s="277"/>
+      <c r="K18" s="278"/>
+      <c r="L18" s="278"/>
+      <c r="M18" s="279"/>
+      <c r="N18" s="268"/>
+      <c r="O18" s="269"/>
+      <c r="P18" s="269"/>
+      <c r="Q18" s="269"/>
+      <c r="R18" s="269"/>
+      <c r="S18" s="270"/>
+      <c r="T18" s="268"/>
+      <c r="U18" s="269"/>
+      <c r="V18" s="269"/>
+      <c r="W18" s="269"/>
+      <c r="X18" s="270"/>
     </row>
     <row r="19" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="254" t="s">
+      <c r="A21" s="283" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="254"/>
-      <c r="C21" s="254"/>
-      <c r="D21" s="254"/>
-      <c r="E21" s="254"/>
-      <c r="F21" s="254"/>
-      <c r="G21" s="254"/>
-      <c r="H21" s="254"/>
+      <c r="B21" s="283"/>
+      <c r="C21" s="283"/>
+      <c r="D21" s="283"/>
+      <c r="E21" s="283"/>
+      <c r="F21" s="283"/>
+      <c r="G21" s="283"/>
+      <c r="H21" s="283"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="254" t="s">
+      <c r="J21" s="283" t="s">
         <v>182</v>
       </c>
-      <c r="K21" s="254"/>
-      <c r="L21" s="254"/>
-      <c r="M21" s="254"/>
-      <c r="N21" s="254"/>
-      <c r="O21" s="254"/>
-      <c r="P21" s="254"/>
+      <c r="K21" s="283"/>
+      <c r="L21" s="283"/>
+      <c r="M21" s="283"/>
+      <c r="N21" s="283"/>
+      <c r="O21" s="283"/>
+      <c r="P21" s="283"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="254" t="s">
+      <c r="R21" s="283" t="s">
         <v>183</v>
       </c>
-      <c r="S21" s="254"/>
-      <c r="T21" s="254"/>
-      <c r="U21" s="254"/>
-      <c r="V21" s="254"/>
-      <c r="W21" s="254"/>
-      <c r="X21" s="254"/>
+      <c r="S21" s="283"/>
+      <c r="T21" s="283"/>
+      <c r="U21" s="283"/>
+      <c r="V21" s="283"/>
+      <c r="W21" s="283"/>
+      <c r="X21" s="283"/>
     </row>
     <row r="23" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P23" s="251" t="s">
+      <c r="P23" s="280" t="s">
         <v>184</v>
       </c>
-      <c r="Q23" s="251"/>
-      <c r="R23" s="251"/>
-      <c r="S23" s="251"/>
-      <c r="T23" s="251"/>
-      <c r="U23" s="252" t="s">
+      <c r="Q23" s="280"/>
+      <c r="R23" s="280"/>
+      <c r="S23" s="280"/>
+      <c r="T23" s="280"/>
+      <c r="U23" s="281" t="s">
         <v>185</v>
       </c>
-      <c r="V23" s="252"/>
-      <c r="W23" s="252"/>
-      <c r="X23" s="252"/>
+      <c r="V23" s="281"/>
+      <c r="W23" s="281"/>
+      <c r="X23" s="281"/>
     </row>
     <row r="24" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P24" s="251" t="s">
+      <c r="P24" s="280" t="s">
         <v>186</v>
       </c>
-      <c r="Q24" s="251"/>
-      <c r="R24" s="251"/>
-      <c r="S24" s="251"/>
-      <c r="T24" s="251"/>
-      <c r="U24" s="253" t="s">
+      <c r="Q24" s="280"/>
+      <c r="R24" s="280"/>
+      <c r="S24" s="280"/>
+      <c r="T24" s="280"/>
+      <c r="U24" s="282" t="s">
         <v>187</v>
       </c>
-      <c r="V24" s="253"/>
-      <c r="W24" s="253"/>
-      <c r="X24" s="253"/>
+      <c r="V24" s="282"/>
+      <c r="W24" s="282"/>
+      <c r="X24" s="282"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:X7"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="N4:X4"/>
-    <mergeCell ref="N5:X5"/>
-    <mergeCell ref="U2:X3"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="P8:X8"/>
-    <mergeCell ref="A10:X10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:X11"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="R21:X21"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="J13:O13"/>
     <mergeCell ref="P13:X13"/>
@@ -8322,13 +8034,25 @@
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="A17:I18"/>
     <mergeCell ref="J17:M18"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="R21:X21"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="P8:X8"/>
+    <mergeCell ref="A10:X10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:X11"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:X7"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="N4:X4"/>
+    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="U2:X3"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" horizontalDpi="4294967294" verticalDpi="200" r:id="rId1"/>

--- a/Bitácora_12.xlsx
+++ b/Bitácora_12.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="223">
   <si>
     <t>Código: 
 GFPI-F-147</t>
@@ -1197,6 +1197,33 @@
       </rPr>
       <t xml:space="preserve">
 https://n9.cl/8jjes</t>
+    </r>
+  </si>
+  <si>
+    <t>Paso a paso para subir cambios a Git Hub</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Documento PDF:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://n9.cl/grqve</t>
     </r>
   </si>
 </sst>
@@ -3096,6 +3123,42 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3108,6 +3171,45 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3159,77 +3261,38 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3276,45 +3339,87 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3333,85 +3438,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3455,7 +3482,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
             <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
-              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" xmlns="" val="1"/>
+              <adec:decorative xmlns="" xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3689,7 +3716,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E00CC92-0015-4CE3-A33B-B1A9AF53B1A4}"/>
             </a:ext>
             <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
-              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" xmlns="" val="1"/>
+              <adec:decorative xmlns="" xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3961,13 +3988,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>54429</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>22597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1681119</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>187440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4011,13 +4038,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1083733</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>25401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1444473</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>165519</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4055,13 +4082,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1676400</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>185057</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4519,56 +4546,56 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="183" t="s">
+      <c r="B3" s="208" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="185"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="210"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="186" t="s">
+      <c r="B4" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="188"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="213"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="189" t="s">
+      <c r="B5" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="190"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="191"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="186" t="s">
+      <c r="B6" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="188"/>
+      <c r="C6" s="212"/>
+      <c r="D6" s="212"/>
+      <c r="E6" s="213"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="183" t="s">
+      <c r="B7" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="184"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="185"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="210"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -4580,29 +4607,29 @@
       <c r="C8" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="192" t="s">
+      <c r="D8" s="217" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="193"/>
+      <c r="E8" s="218"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="194" t="s">
+      <c r="B9" s="219" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="195"/>
-      <c r="D9" s="195"/>
-      <c r="E9" s="196"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="220"/>
+      <c r="E9" s="221"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="197" t="s">
+      <c r="B10" s="222" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="198"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="199"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="224"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="200" t="s">
@@ -4613,12 +4640,12 @@
       <c r="E11" s="202"/>
     </row>
     <row r="12" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="179" t="s">
+      <c r="B12" s="191" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="180"/>
-      <c r="D12" s="181"/>
-      <c r="E12" s="182"/>
+      <c r="C12" s="192"/>
+      <c r="D12" s="193"/>
+      <c r="E12" s="194"/>
       <c r="F12" s="1"/>
       <c r="G12" s="39"/>
     </row>
@@ -4629,68 +4656,68 @@
       <c r="E13" s="83"/>
     </row>
     <row r="14" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="212" t="s">
+      <c r="B14" s="182" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="213"/>
-      <c r="D14" s="213"/>
-      <c r="E14" s="214"/>
+      <c r="C14" s="183"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="184"/>
     </row>
     <row r="15" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="215" t="s">
+      <c r="B15" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="216"/>
-      <c r="D15" s="216"/>
-      <c r="E15" s="217"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="187"/>
     </row>
     <row r="16" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="215" t="s">
+      <c r="B16" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="216"/>
-      <c r="D16" s="216"/>
-      <c r="E16" s="217"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="187"/>
     </row>
     <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="221" t="s">
+      <c r="B17" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="222"/>
-      <c r="D17" s="222"/>
-      <c r="E17" s="223"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="197"/>
     </row>
     <row r="18" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="215" t="s">
+      <c r="B18" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="216"/>
-      <c r="D18" s="216"/>
-      <c r="E18" s="217"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="186"/>
+      <c r="E18" s="187"/>
     </row>
     <row r="19" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="215" t="s">
+      <c r="B19" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="216"/>
-      <c r="D19" s="216"/>
-      <c r="E19" s="217"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="187"/>
     </row>
     <row r="20" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="218" t="s">
+      <c r="B20" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="219"/>
-      <c r="D20" s="219"/>
-      <c r="E20" s="220"/>
+      <c r="C20" s="189"/>
+      <c r="D20" s="189"/>
+      <c r="E20" s="190"/>
     </row>
     <row r="21" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="179" t="s">
+      <c r="B21" s="191" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="180"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="182"/>
+      <c r="C21" s="192"/>
+      <c r="D21" s="193"/>
+      <c r="E21" s="194"/>
     </row>
     <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="200" t="s">
@@ -4728,8 +4755,8 @@
       <c r="C25" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="208"/>
-      <c r="E25" s="209"/>
+      <c r="D25" s="198"/>
+      <c r="E25" s="199"/>
     </row>
     <row r="26" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B26" s="65" t="s">
@@ -4738,8 +4765,8 @@
       <c r="C26" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="208"/>
-      <c r="E26" s="209"/>
+      <c r="D26" s="198"/>
+      <c r="E26" s="199"/>
     </row>
     <row r="27" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B27" s="67" t="s">
@@ -4748,8 +4775,8 @@
       <c r="C27" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="208"/>
-      <c r="E27" s="209"/>
+      <c r="D27" s="198"/>
+      <c r="E27" s="199"/>
     </row>
     <row r="28" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="77" t="s">
@@ -4758,8 +4785,8 @@
       <c r="C28" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="208"/>
-      <c r="E28" s="209"/>
+      <c r="D28" s="198"/>
+      <c r="E28" s="199"/>
     </row>
     <row r="29" spans="2:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="77" t="s">
@@ -4768,10 +4795,10 @@
       <c r="C29" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="208" t="s">
+      <c r="D29" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="209" t="s">
+      <c r="E29" s="199" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4782,10 +4809,10 @@
       <c r="C30" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="208" t="s">
+      <c r="D30" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="209" t="s">
+      <c r="E30" s="199" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4796,8 +4823,8 @@
       <c r="C31" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="208"/>
-      <c r="E31" s="209"/>
+      <c r="D31" s="198"/>
+      <c r="E31" s="199"/>
     </row>
     <row r="32" spans="2:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="77" t="s">
@@ -4806,10 +4833,10 @@
       <c r="C32" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="208" t="s">
+      <c r="D32" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="209" t="s">
+      <c r="E32" s="199" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4820,8 +4847,8 @@
       <c r="C33" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="208"/>
-      <c r="E33" s="209"/>
+      <c r="D33" s="198"/>
+      <c r="E33" s="199"/>
     </row>
     <row r="34" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B34" s="77" t="s">
@@ -4830,8 +4857,8 @@
       <c r="C34" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="208"/>
-      <c r="E34" s="209"/>
+      <c r="D34" s="198"/>
+      <c r="E34" s="199"/>
     </row>
     <row r="35" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B35" s="77" t="s">
@@ -4840,8 +4867,8 @@
       <c r="C35" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="208"/>
-      <c r="E35" s="209"/>
+      <c r="D35" s="198"/>
+      <c r="E35" s="199"/>
     </row>
     <row r="36" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B36" s="77" t="s">
@@ -4850,8 +4877,8 @@
       <c r="C36" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="208"/>
-      <c r="E36" s="209"/>
+      <c r="D36" s="198"/>
+      <c r="E36" s="199"/>
     </row>
     <row r="37" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B37" s="77" t="s">
@@ -4860,8 +4887,8 @@
       <c r="C37" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="208"/>
-      <c r="E37" s="209"/>
+      <c r="D37" s="198"/>
+      <c r="E37" s="199"/>
     </row>
     <row r="38" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B38" s="77" t="s">
@@ -4870,8 +4897,8 @@
       <c r="C38" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="208"/>
-      <c r="E38" s="209"/>
+      <c r="D38" s="198"/>
+      <c r="E38" s="199"/>
     </row>
     <row r="39" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B39" s="77" t="s">
@@ -4880,8 +4907,8 @@
       <c r="C39" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="208"/>
-      <c r="E39" s="209"/>
+      <c r="D39" s="198"/>
+      <c r="E39" s="199"/>
     </row>
     <row r="40" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B40" s="77" t="s">
@@ -4890,8 +4917,8 @@
       <c r="C40" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="208"/>
-      <c r="E40" s="209"/>
+      <c r="D40" s="198"/>
+      <c r="E40" s="199"/>
     </row>
     <row r="41" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B41" s="77" t="s">
@@ -4900,8 +4927,8 @@
       <c r="C41" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="208"/>
-      <c r="E41" s="209"/>
+      <c r="D41" s="198"/>
+      <c r="E41" s="199"/>
     </row>
     <row r="42" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B42" s="77" t="s">
@@ -4910,8 +4937,8 @@
       <c r="C42" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="208"/>
-      <c r="E42" s="209"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="199"/>
     </row>
     <row r="43" spans="2:5" ht="403.2" x14ac:dyDescent="0.3">
       <c r="B43" s="77" t="s">
@@ -4920,10 +4947,10 @@
       <c r="C43" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="208" t="s">
+      <c r="D43" s="198" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="209" t="s">
+      <c r="E43" s="199" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4934,8 +4961,8 @@
       <c r="C44" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="208"/>
-      <c r="E44" s="209"/>
+      <c r="D44" s="198"/>
+      <c r="E44" s="199"/>
     </row>
     <row r="45" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B45" s="77" t="s">
@@ -4944,8 +4971,8 @@
       <c r="C45" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="208"/>
-      <c r="E45" s="209"/>
+      <c r="D45" s="198"/>
+      <c r="E45" s="199"/>
     </row>
     <row r="46" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B46" s="77" t="s">
@@ -4954,8 +4981,8 @@
       <c r="C46" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="208"/>
-      <c r="E46" s="209"/>
+      <c r="D46" s="198"/>
+      <c r="E46" s="199"/>
     </row>
     <row r="47" spans="2:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="77" t="s">
@@ -4964,10 +4991,10 @@
       <c r="C47" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="208" t="s">
+      <c r="D47" s="198" t="s">
         <v>74</v>
       </c>
-      <c r="E47" s="209" t="s">
+      <c r="E47" s="199" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4978,8 +5005,8 @@
       <c r="C48" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="208"/>
-      <c r="E48" s="209"/>
+      <c r="D48" s="198"/>
+      <c r="E48" s="199"/>
     </row>
     <row r="49" spans="2:5" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="77" t="s">
@@ -4988,10 +5015,10 @@
       <c r="C49" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="208" t="s">
+      <c r="D49" s="198" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="209" t="s">
+      <c r="E49" s="199" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5002,10 +5029,10 @@
       <c r="C50" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="208" t="s">
+      <c r="D50" s="198" t="s">
         <v>82</v>
       </c>
-      <c r="E50" s="209" t="s">
+      <c r="E50" s="199" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5016,10 +5043,10 @@
       <c r="C51" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="208" t="s">
+      <c r="D51" s="198" t="s">
         <v>86</v>
       </c>
-      <c r="E51" s="209" t="s">
+      <c r="E51" s="199" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5030,8 +5057,8 @@
       <c r="C52" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="208"/>
-      <c r="E52" s="209"/>
+      <c r="D52" s="198"/>
+      <c r="E52" s="199"/>
     </row>
     <row r="53" spans="2:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B53" s="77" t="s">
@@ -5040,8 +5067,8 @@
       <c r="C53" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="D53" s="208"/>
-      <c r="E53" s="209"/>
+      <c r="D53" s="198"/>
+      <c r="E53" s="199"/>
     </row>
     <row r="54" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B54" s="77" t="s">
@@ -5050,8 +5077,8 @@
       <c r="C54" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="D54" s="208"/>
-      <c r="E54" s="209"/>
+      <c r="D54" s="198"/>
+      <c r="E54" s="199"/>
     </row>
     <row r="55" spans="2:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B55" s="77" t="s">
@@ -5060,8 +5087,8 @@
       <c r="C55" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D55" s="208"/>
-      <c r="E55" s="209"/>
+      <c r="D55" s="198"/>
+      <c r="E55" s="199"/>
     </row>
     <row r="56" spans="2:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B56" s="78" t="s">
@@ -5070,8 +5097,8 @@
       <c r="C56" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="208"/>
-      <c r="E56" s="209"/>
+      <c r="D56" s="198"/>
+      <c r="E56" s="199"/>
     </row>
     <row r="57" spans="2:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="79" t="s">
@@ -5080,10 +5107,10 @@
       <c r="C57" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="D57" s="210" t="s">
+      <c r="D57" s="180" t="s">
         <v>98</v>
       </c>
-      <c r="E57" s="211" t="s">
+      <c r="E57" s="181" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5101,6 +5128,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B19:E19"/>
@@ -5117,44 +5182,6 @@
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5164,9 +5191,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Z72"/>
+  <dimension ref="B1:Z73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
@@ -5249,14 +5276,14 @@
       <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="183" t="s">
+      <c r="B3" s="208" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="185"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="210"/>
       <c r="H3" s="10"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -5278,14 +5305,14 @@
       <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="186" t="s">
+      <c r="B4" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="188"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="213"/>
       <c r="H4" s="10"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -5307,14 +5334,14 @@
       <c r="Z4" s="9"/>
     </row>
     <row r="5" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="183" t="s">
+      <c r="B5" s="208" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="185"/>
+      <c r="C5" s="209"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
+      <c r="F5" s="209"/>
+      <c r="G5" s="210"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="9"/>
@@ -5336,14 +5363,14 @@
       <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="186" t="s">
+      <c r="B6" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
+      <c r="C6" s="212"/>
+      <c r="D6" s="212"/>
+      <c r="E6" s="212"/>
+      <c r="F6" s="212"/>
+      <c r="G6" s="213"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="9"/>
@@ -5365,14 +5392,14 @@
       <c r="Z6" s="9"/>
     </row>
     <row r="7" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="183" t="s">
+      <c r="B7" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="184"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="184"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="185"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="210"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -5573,11 +5600,11 @@
       </c>
       <c r="C14" s="117"/>
       <c r="D14" s="117"/>
-      <c r="E14" s="241" t="s">
+      <c r="E14" s="225" t="s">
         <v>191</v>
       </c>
-      <c r="F14" s="242"/>
-      <c r="G14" s="243"/>
+      <c r="F14" s="226"/>
+      <c r="G14" s="227"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -5623,10 +5650,10 @@
       <c r="Y15" s="15"/>
     </row>
     <row r="16" spans="2:26" s="11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="248" t="s">
+      <c r="B16" s="234" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="249"/>
+      <c r="C16" s="235"/>
       <c r="D16" s="125" t="s">
         <v>47</v>
       </c>
@@ -5649,10 +5676,10 @@
       <c r="Z16" s="12"/>
     </row>
     <row r="17" spans="2:26" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="244" t="s">
+      <c r="B17" s="228" t="s">
         <v>192</v>
       </c>
-      <c r="C17" s="245"/>
+      <c r="C17" s="229"/>
       <c r="D17" s="128" t="s">
         <v>193</v>
       </c>
@@ -5732,10 +5759,10 @@
       <c r="Z19" s="12"/>
     </row>
     <row r="20" spans="2:26" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="244" t="s">
+      <c r="B20" s="228" t="s">
         <v>194</v>
       </c>
-      <c r="C20" s="245"/>
+      <c r="C20" s="229"/>
       <c r="D20" s="160" t="s">
         <v>195</v>
       </c>
@@ -5787,14 +5814,14 @@
       <c r="Y21" s="15"/>
     </row>
     <row r="22" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="230" t="s">
+      <c r="B22" s="242" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="231"/>
-      <c r="D22" s="231"/>
-      <c r="E22" s="231"/>
-      <c r="F22" s="231"/>
-      <c r="G22" s="232"/>
+      <c r="C22" s="243"/>
+      <c r="D22" s="243"/>
+      <c r="E22" s="243"/>
+      <c r="F22" s="243"/>
+      <c r="G22" s="244"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -5973,10 +6000,10 @@
       </c>
       <c r="D28" s="43"/>
       <c r="E28" s="54"/>
-      <c r="F28" s="233" t="s">
+      <c r="F28" s="245" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="234"/>
+      <c r="G28" s="246"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="20"/>
@@ -6003,8 +6030,8 @@
       <c r="E29" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="233"/>
-      <c r="G29" s="234"/>
+      <c r="F29" s="245"/>
+      <c r="G29" s="246"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="20"/>
@@ -6342,17 +6369,17 @@
       <c r="Y39" s="18"/>
     </row>
     <row r="40" spans="2:26" ht="138.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="239" t="s">
+      <c r="B40" s="230" t="s">
         <v>207</v>
       </c>
-      <c r="C40" s="240"/>
+      <c r="C40" s="232"/>
       <c r="D40" s="171">
         <v>45753</v>
       </c>
       <c r="E40" s="171">
         <v>45767</v>
       </c>
-      <c r="F40" s="284" t="s">
+      <c r="F40" s="179" t="s">
         <v>211</v>
       </c>
       <c r="G40" s="169"/>
@@ -6376,10 +6403,10 @@
       <c r="Y40" s="18"/>
     </row>
     <row r="41" spans="2:26" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="247" t="s">
+      <c r="B41" s="233" t="s">
         <v>208</v>
       </c>
-      <c r="C41" s="246"/>
+      <c r="C41" s="231"/>
       <c r="D41" s="172">
         <v>45754</v>
       </c>
@@ -6410,10 +6437,10 @@
       <c r="Y41" s="18"/>
     </row>
     <row r="42" spans="2:26" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="239" t="s">
+      <c r="B42" s="230" t="s">
         <v>212</v>
       </c>
-      <c r="C42" s="246"/>
+      <c r="C42" s="231"/>
       <c r="D42" s="172">
         <v>45754</v>
       </c>
@@ -6444,10 +6471,10 @@
       <c r="Y42" s="18"/>
     </row>
     <row r="43" spans="2:26" ht="236.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="247" t="s">
+      <c r="B43" s="233" t="s">
         <v>203</v>
       </c>
-      <c r="C43" s="246"/>
+      <c r="C43" s="231"/>
       <c r="D43" s="172">
         <v>45754</v>
       </c>
@@ -6478,10 +6505,10 @@
       <c r="Y43" s="18"/>
     </row>
     <row r="44" spans="2:26" ht="205.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="247" t="s">
+      <c r="B44" s="233" t="s">
         <v>202</v>
       </c>
-      <c r="C44" s="246"/>
+      <c r="C44" s="231"/>
       <c r="D44" s="172">
         <v>45754</v>
       </c>
@@ -6510,10 +6537,10 @@
       <c r="Y44" s="18"/>
     </row>
     <row r="45" spans="2:26" ht="147" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="239" t="s">
+      <c r="B45" s="230" t="s">
         <v>213</v>
       </c>
-      <c r="C45" s="246"/>
+      <c r="C45" s="231"/>
       <c r="D45" s="172">
         <v>45761</v>
       </c>
@@ -6544,10 +6571,10 @@
       <c r="Y45" s="18"/>
     </row>
     <row r="46" spans="2:26" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="239" t="s">
+      <c r="B46" s="230" t="s">
         <v>214</v>
       </c>
-      <c r="C46" s="240"/>
+      <c r="C46" s="232"/>
       <c r="D46" s="172">
         <v>45754</v>
       </c>
@@ -6577,11 +6604,11 @@
       <c r="X46" s="18"/>
       <c r="Y46" s="18"/>
     </row>
-    <row r="47" spans="2:26" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="239" t="s">
-        <v>201</v>
-      </c>
-      <c r="C47" s="246"/>
+    <row r="47" spans="2:26" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="230" t="s">
+        <v>221</v>
+      </c>
+      <c r="C47" s="232"/>
       <c r="D47" s="172">
         <v>45754</v>
       </c>
@@ -6589,7 +6616,7 @@
         <v>45763</v>
       </c>
       <c r="F47" s="170" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G47" s="169"/>
       <c r="H47" s="20"/>
@@ -6611,15 +6638,21 @@
       <c r="X47" s="18"/>
       <c r="Y47" s="18"/>
     </row>
-    <row r="48" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="27"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
+    <row r="48" spans="2:26" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="230" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="231"/>
+      <c r="D48" s="172">
+        <v>45754</v>
+      </c>
+      <c r="E48" s="172">
+        <v>45763</v>
+      </c>
+      <c r="F48" s="170" t="s">
+        <v>220</v>
+      </c>
+      <c r="G48" s="169"/>
       <c r="H48" s="20"/>
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
@@ -6639,43 +6672,43 @@
       <c r="X48" s="18"/>
       <c r="Y48" s="18"/>
     </row>
-    <row r="49" spans="2:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="100"/>
-      <c r="C49" s="101" t="s">
+    <row r="49" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="27"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="18"/>
+      <c r="W49" s="18"/>
+      <c r="X49" s="18"/>
+      <c r="Y49" s="18"/>
+    </row>
+    <row r="50" spans="2:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="100"/>
+      <c r="C50" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="D49" s="102"/>
-      <c r="E49" s="102"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22"/>
-      <c r="S49" s="22"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="22"/>
-      <c r="V49" s="22"/>
-      <c r="W49" s="22"/>
-      <c r="X49" s="22"/>
-      <c r="Y49" s="22"/>
-    </row>
-    <row r="50" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="236" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="237"/>
-      <c r="D50" s="237"/>
-      <c r="E50" s="237"/>
-      <c r="F50" s="237"/>
-      <c r="G50" s="238"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="103"/>
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
       <c r="J50" s="22"/>
@@ -6695,43 +6728,43 @@
       <c r="X50" s="22"/>
       <c r="Y50" s="22"/>
     </row>
-    <row r="51" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="104" t="s">
+    <row r="51" spans="2:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="248" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="249"/>
+      <c r="D51" s="249"/>
+      <c r="E51" s="249"/>
+      <c r="F51" s="249"/>
+      <c r="G51" s="250"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="22"/>
+      <c r="X51" s="22"/>
+      <c r="Y51" s="22"/>
+    </row>
+    <row r="52" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="105"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="29"/>
-      <c r="Y51" s="29"/>
-    </row>
-    <row r="52" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="106" t="s">
-        <v>149</v>
-      </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="107"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="105"/>
       <c r="H52" s="29"/>
       <c r="I52" s="29"/>
       <c r="J52" s="29"/>
@@ -6753,7 +6786,7 @@
     </row>
     <row r="53" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="106" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="29"/>
       <c r="D53" s="29"/>
@@ -6779,9 +6812,9 @@
       <c r="X53" s="29"/>
       <c r="Y53" s="29"/>
     </row>
-    <row r="54" spans="2:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="106" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
@@ -6807,56 +6840,53 @@
       <c r="X54" s="29"/>
       <c r="Y54" s="29"/>
     </row>
-    <row r="55" spans="2:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="111" t="s">
+    <row r="55" spans="2:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="107"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
+      <c r="U55" s="29"/>
+      <c r="V55" s="29"/>
+      <c r="W55" s="29"/>
+      <c r="X55" s="29"/>
+      <c r="Y55" s="29"/>
+    </row>
+    <row r="56" spans="2:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="112" t="s">
+      <c r="C56" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="D55" s="113" t="s">
+      <c r="D56" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="E55" s="114" t="s">
+      <c r="E56" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="F55" s="113" t="s">
+      <c r="F56" s="113" t="s">
         <v>152</v>
       </c>
-      <c r="G55" s="115" t="s">
+      <c r="G56" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="18"/>
-      <c r="X55" s="18"/>
-      <c r="Y55" s="18"/>
-      <c r="Z55" s="18"/>
-    </row>
-    <row r="56" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="162" t="s">
-        <v>198</v>
-      </c>
-      <c r="C56" s="163">
-        <v>1</v>
-      </c>
-      <c r="D56" s="108"/>
-      <c r="E56" s="109"/>
-      <c r="F56" s="108"/>
-      <c r="G56" s="110"/>
       <c r="H56" s="18"/>
       <c r="I56" s="18"/>
       <c r="J56" s="18"/>
@@ -6877,13 +6907,17 @@
       <c r="Y56" s="18"/>
       <c r="Z56" s="18"/>
     </row>
-    <row r="57" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
+    <row r="57" spans="2:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="162" t="s">
+        <v>198</v>
+      </c>
+      <c r="C57" s="163">
+        <v>1</v>
+      </c>
+      <c r="D57" s="108"/>
+      <c r="E57" s="109"/>
+      <c r="F57" s="108"/>
+      <c r="G57" s="110"/>
       <c r="H57" s="18"/>
       <c r="I57" s="18"/>
       <c r="J57" s="18"/>
@@ -6904,14 +6938,13 @@
       <c r="Y57" s="18"/>
       <c r="Z57" s="18"/>
     </row>
-    <row r="58" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="30"/>
-      <c r="D58" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
+    <row r="58" spans="2:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
       <c r="H58" s="18"/>
       <c r="I58" s="18"/>
       <c r="J58" s="18"/>
@@ -6933,12 +6966,13 @@
       <c r="Z58" s="18"/>
     </row>
     <row r="59" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
       <c r="H59" s="18"/>
       <c r="I59" s="18"/>
       <c r="J59" s="18"/>
@@ -6987,13 +7021,12 @@
       <c r="Z60" s="18"/>
     </row>
     <row r="61" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="33"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="33"/>
-      <c r="F61" s="173">
-        <v>45724</v>
-      </c>
-      <c r="G61" s="18"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
       <c r="H61" s="18"/>
       <c r="I61" s="18"/>
       <c r="J61" s="18"/>
@@ -7015,13 +7048,11 @@
       <c r="Z61" s="18"/>
     </row>
     <row r="62" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="235" t="s">
-        <v>89</v>
-      </c>
-      <c r="C62" s="235"/>
-      <c r="D62" s="235"/>
-      <c r="F62" s="19" t="s">
-        <v>91</v>
+      <c r="B62" s="33"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="33"/>
+      <c r="F62" s="173">
+        <v>45724</v>
       </c>
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
@@ -7044,11 +7075,15 @@
       <c r="Y62" s="18"/>
       <c r="Z62" s="18"/>
     </row>
-    <row r="63" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B63" s="9"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="9"/>
-      <c r="F63" s="18"/>
+    <row r="63" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="247" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="247"/>
+      <c r="D63" s="247"/>
+      <c r="F63" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
       <c r="I63" s="18"/>
@@ -7070,11 +7105,11 @@
       <c r="Y63" s="18"/>
       <c r="Z63" s="18"/>
     </row>
-    <row r="64" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B64" s="9"/>
       <c r="C64" s="18"/>
       <c r="D64" s="9"/>
-      <c r="F64" s="20"/>
+      <c r="F64" s="18"/>
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
       <c r="I64" s="18"/>
@@ -7097,11 +7132,11 @@
       <c r="Z64" s="18"/>
     </row>
     <row r="65" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="33"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="33"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="34"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="9"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="18"/>
       <c r="H65" s="18"/>
       <c r="I65" s="18"/>
       <c r="J65" s="18"/>
@@ -7122,16 +7157,12 @@
       <c r="Y65" s="18"/>
       <c r="Z65" s="18"/>
     </row>
-    <row r="66" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="9"/>
-      <c r="C66" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D66" s="9"/>
-      <c r="F66" s="235" t="s">
-        <v>154</v>
-      </c>
-      <c r="G66" s="235"/>
+    <row r="66" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="33"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="33"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="34"/>
       <c r="H66" s="18"/>
       <c r="I66" s="18"/>
       <c r="J66" s="18"/>
@@ -7152,15 +7183,16 @@
       <c r="Y66" s="18"/>
       <c r="Z66" s="18"/>
     </row>
-    <row r="67" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
+    <row r="67" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="9"/>
+      <c r="C67" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="F67" s="247" t="s">
+        <v>154</v>
+      </c>
+      <c r="G67" s="247"/>
       <c r="H67" s="18"/>
       <c r="I67" s="18"/>
       <c r="J67" s="18"/>
@@ -7181,8 +7213,10 @@
       <c r="Y67" s="18"/>
       <c r="Z67" s="18"/>
     </row>
-    <row r="68" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="32"/>
+    <row r="68" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="31" t="s">
+        <v>155</v>
+      </c>
       <c r="C68" s="32"/>
       <c r="D68" s="32"/>
       <c r="E68" s="32"/>
@@ -7208,46 +7242,44 @@
       <c r="Y68" s="18"/>
       <c r="Z68" s="18"/>
     </row>
-    <row r="69" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="224" t="s">
+    <row r="69" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="18"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="18"/>
+      <c r="T69" s="18"/>
+      <c r="U69" s="18"/>
+      <c r="V69" s="18"/>
+      <c r="W69" s="18"/>
+      <c r="X69" s="18"/>
+      <c r="Y69" s="18"/>
+      <c r="Z69" s="18"/>
+    </row>
+    <row r="70" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="236" t="s">
         <v>156</v>
       </c>
-      <c r="C69" s="225"/>
-      <c r="D69" s="225"/>
-      <c r="E69" s="225"/>
-      <c r="F69" s="225"/>
-      <c r="G69" s="226"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="9"/>
-      <c r="Z69" s="9"/>
-    </row>
-    <row r="70" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="227" t="s">
-        <v>157</v>
-      </c>
-      <c r="C70" s="228"/>
-      <c r="D70" s="228"/>
-      <c r="E70" s="228"/>
-      <c r="F70" s="228"/>
-      <c r="G70" s="229"/>
+      <c r="C70" s="237"/>
+      <c r="D70" s="237"/>
+      <c r="E70" s="237"/>
+      <c r="F70" s="237"/>
+      <c r="G70" s="238"/>
       <c r="H70" s="10"/>
-      <c r="I70" s="40"/>
+      <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
@@ -7266,40 +7298,84 @@
       <c r="Y70" s="9"/>
       <c r="Z70" s="9"/>
     </row>
-    <row r="71" spans="2:26" s="10" customFormat="1" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="116"/>
-      <c r="C71" s="117"/>
-      <c r="D71" s="117"/>
-      <c r="E71" s="117"/>
-      <c r="F71" s="117"/>
-      <c r="G71" s="118"/>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="H72" s="10"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="9"/>
-      <c r="S72" s="9"/>
-      <c r="T72" s="9"/>
-      <c r="U72" s="9"/>
-      <c r="V72" s="9"/>
-      <c r="W72" s="9"/>
-      <c r="X72" s="9"/>
-      <c r="Y72" s="9"/>
-      <c r="Z72" s="9"/>
+    <row r="71" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="239" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="240"/>
+      <c r="D71" s="240"/>
+      <c r="E71" s="240"/>
+      <c r="F71" s="240"/>
+      <c r="G71" s="241"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="9"/>
+      <c r="X71" s="9"/>
+      <c r="Y71" s="9"/>
+      <c r="Z71" s="9"/>
+    </row>
+    <row r="72" spans="2:26" s="10" customFormat="1" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="116"/>
+      <c r="C72" s="117"/>
+      <c r="D72" s="117"/>
+      <c r="E72" s="117"/>
+      <c r="F72" s="117"/>
+      <c r="G72" s="118"/>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="H73" s="10"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="9"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="9"/>
+      <c r="Y73" s="9"/>
+      <c r="Z73" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
@@ -7308,20 +7384,6 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F11" r:id="rId1"/>
@@ -7329,15 +7391,16 @@
     <hyperlink ref="F20" r:id="rId3"/>
     <hyperlink ref="F23" r:id="rId4"/>
     <hyperlink ref="F46" r:id="rId5" display="https://n9.cl/q5iep"/>
-    <hyperlink ref="F47" r:id="rId6" display="https://n9.cl/8jjes"/>
+    <hyperlink ref="F48" r:id="rId6" display="https://n9.cl/8jjes"/>
     <hyperlink ref="F45" r:id="rId7" display="https://n9.cl/8jjes"/>
     <hyperlink ref="F43" r:id="rId8" display="https://n9.cl/8jjes"/>
     <hyperlink ref="F42" r:id="rId9" display="https://n9.cl/8jjes"/>
     <hyperlink ref="F41" r:id="rId10" display="https://n9.cl/8jjes"/>
+    <hyperlink ref="F47" r:id="rId11" display="https://n9.cl/grqve"/>
   </hyperlinks>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="80" orientation="landscape" horizontalDpi="4294967294" r:id="rId11"/>
-  <drawing r:id="rId12"/>
+  <pageSetup scale="80" orientation="landscape" horizontalDpi="4294967294" r:id="rId12"/>
+  <drawing r:id="rId13"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -7444,124 +7507,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="277" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="250"/>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="250"/>
-      <c r="O1" s="250"/>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="250"/>
-      <c r="R1" s="250"/>
-      <c r="S1" s="250"/>
-      <c r="T1" s="250"/>
-      <c r="U1" s="250" t="s">
+      <c r="B1" s="277"/>
+      <c r="C1" s="277"/>
+      <c r="D1" s="277"/>
+      <c r="E1" s="277"/>
+      <c r="F1" s="277"/>
+      <c r="G1" s="277"/>
+      <c r="H1" s="277"/>
+      <c r="I1" s="277"/>
+      <c r="J1" s="277"/>
+      <c r="K1" s="277"/>
+      <c r="L1" s="277"/>
+      <c r="M1" s="277"/>
+      <c r="N1" s="277"/>
+      <c r="O1" s="277"/>
+      <c r="P1" s="277"/>
+      <c r="Q1" s="277"/>
+      <c r="R1" s="277"/>
+      <c r="S1" s="277"/>
+      <c r="T1" s="277"/>
+      <c r="U1" s="277" t="s">
         <v>159</v>
       </c>
-      <c r="V1" s="250"/>
-      <c r="W1" s="250"/>
-      <c r="X1" s="250"/>
+      <c r="V1" s="277"/>
+      <c r="W1" s="277"/>
+      <c r="X1" s="277"/>
     </row>
     <row r="2" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="250"/>
-      <c r="B2" s="250"/>
-      <c r="C2" s="250"/>
-      <c r="D2" s="250"/>
-      <c r="E2" s="250"/>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="250"/>
-      <c r="N2" s="250"/>
-      <c r="O2" s="250"/>
-      <c r="P2" s="250"/>
-      <c r="Q2" s="250"/>
-      <c r="R2" s="250"/>
-      <c r="S2" s="250"/>
-      <c r="T2" s="250"/>
-      <c r="U2" s="258" t="s">
+      <c r="A2" s="277"/>
+      <c r="B2" s="277"/>
+      <c r="C2" s="277"/>
+      <c r="D2" s="277"/>
+      <c r="E2" s="277"/>
+      <c r="F2" s="277"/>
+      <c r="G2" s="277"/>
+      <c r="H2" s="277"/>
+      <c r="I2" s="277"/>
+      <c r="J2" s="277"/>
+      <c r="K2" s="277"/>
+      <c r="L2" s="277"/>
+      <c r="M2" s="277"/>
+      <c r="N2" s="277"/>
+      <c r="O2" s="277"/>
+      <c r="P2" s="277"/>
+      <c r="Q2" s="277"/>
+      <c r="R2" s="277"/>
+      <c r="S2" s="277"/>
+      <c r="T2" s="277"/>
+      <c r="U2" s="257" t="s">
         <v>160</v>
       </c>
-      <c r="V2" s="258"/>
-      <c r="W2" s="258"/>
-      <c r="X2" s="258"/>
+      <c r="V2" s="257"/>
+      <c r="W2" s="257"/>
+      <c r="X2" s="257"/>
     </row>
     <row r="3" spans="1:24" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="U3" s="259"/>
-      <c r="V3" s="259"/>
-      <c r="W3" s="259"/>
-      <c r="X3" s="259"/>
+      <c r="U3" s="284"/>
+      <c r="V3" s="284"/>
+      <c r="W3" s="284"/>
+      <c r="X3" s="284"/>
     </row>
     <row r="4" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="255" t="s">
+      <c r="A4" s="281" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
-      <c r="F4" s="256"/>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="256"/>
-      <c r="M4" s="257"/>
-      <c r="N4" s="255" t="s">
+      <c r="B4" s="282"/>
+      <c r="C4" s="282"/>
+      <c r="D4" s="282"/>
+      <c r="E4" s="282"/>
+      <c r="F4" s="282"/>
+      <c r="G4" s="282"/>
+      <c r="H4" s="282"/>
+      <c r="I4" s="282"/>
+      <c r="J4" s="282"/>
+      <c r="K4" s="282"/>
+      <c r="L4" s="282"/>
+      <c r="M4" s="283"/>
+      <c r="N4" s="281" t="s">
         <v>162</v>
       </c>
-      <c r="O4" s="256"/>
-      <c r="P4" s="256"/>
-      <c r="Q4" s="256"/>
-      <c r="R4" s="256"/>
-      <c r="S4" s="256"/>
-      <c r="T4" s="256"/>
-      <c r="U4" s="256"/>
-      <c r="V4" s="256"/>
-      <c r="W4" s="256"/>
-      <c r="X4" s="257"/>
+      <c r="O4" s="282"/>
+      <c r="P4" s="282"/>
+      <c r="Q4" s="282"/>
+      <c r="R4" s="282"/>
+      <c r="S4" s="282"/>
+      <c r="T4" s="282"/>
+      <c r="U4" s="282"/>
+      <c r="V4" s="282"/>
+      <c r="W4" s="282"/>
+      <c r="X4" s="283"/>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="252"/>
-      <c r="B5" s="253"/>
-      <c r="C5" s="253"/>
-      <c r="D5" s="253"/>
-      <c r="E5" s="253"/>
-      <c r="F5" s="253"/>
-      <c r="G5" s="253"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="253"/>
-      <c r="J5" s="253"/>
-      <c r="K5" s="253"/>
-      <c r="L5" s="253"/>
-      <c r="M5" s="254"/>
-      <c r="N5" s="252"/>
-      <c r="O5" s="253"/>
-      <c r="P5" s="253"/>
-      <c r="Q5" s="253"/>
-      <c r="R5" s="253"/>
-      <c r="S5" s="253"/>
-      <c r="T5" s="253"/>
-      <c r="U5" s="253"/>
-      <c r="V5" s="253"/>
-      <c r="W5" s="253"/>
-      <c r="X5" s="254"/>
+      <c r="A5" s="278"/>
+      <c r="B5" s="279"/>
+      <c r="C5" s="279"/>
+      <c r="D5" s="279"/>
+      <c r="E5" s="279"/>
+      <c r="F5" s="279"/>
+      <c r="G5" s="279"/>
+      <c r="H5" s="279"/>
+      <c r="I5" s="279"/>
+      <c r="J5" s="279"/>
+      <c r="K5" s="279"/>
+      <c r="L5" s="279"/>
+      <c r="M5" s="280"/>
+      <c r="N5" s="278"/>
+      <c r="O5" s="279"/>
+      <c r="P5" s="279"/>
+      <c r="Q5" s="279"/>
+      <c r="R5" s="279"/>
+      <c r="S5" s="279"/>
+      <c r="T5" s="279"/>
+      <c r="U5" s="279"/>
+      <c r="V5" s="279"/>
+      <c r="W5" s="279"/>
+      <c r="X5" s="280"/>
     </row>
     <row r="6" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
@@ -7590,66 +7653,66 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="251" t="s">
+      <c r="A7" s="255" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="251"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
-      <c r="E7" s="251"/>
-      <c r="F7" s="251"/>
-      <c r="G7" s="251"/>
-      <c r="H7" s="251"/>
-      <c r="I7" s="251"/>
-      <c r="J7" s="251" t="s">
+      <c r="B7" s="255"/>
+      <c r="C7" s="255"/>
+      <c r="D7" s="255"/>
+      <c r="E7" s="255"/>
+      <c r="F7" s="255"/>
+      <c r="G7" s="255"/>
+      <c r="H7" s="255"/>
+      <c r="I7" s="255"/>
+      <c r="J7" s="255" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="251"/>
-      <c r="L7" s="251"/>
-      <c r="M7" s="251"/>
-      <c r="N7" s="251"/>
-      <c r="O7" s="251"/>
-      <c r="P7" s="251" t="s">
+      <c r="K7" s="255"/>
+      <c r="L7" s="255"/>
+      <c r="M7" s="255"/>
+      <c r="N7" s="255"/>
+      <c r="O7" s="255"/>
+      <c r="P7" s="255" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" s="251"/>
-      <c r="R7" s="251"/>
-      <c r="S7" s="251"/>
-      <c r="T7" s="251"/>
-      <c r="U7" s="251"/>
-      <c r="V7" s="251"/>
-      <c r="W7" s="251"/>
-      <c r="X7" s="251"/>
+      <c r="Q7" s="255"/>
+      <c r="R7" s="255"/>
+      <c r="S7" s="255"/>
+      <c r="T7" s="255"/>
+      <c r="U7" s="255"/>
+      <c r="V7" s="255"/>
+      <c r="W7" s="255"/>
+      <c r="X7" s="255"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="260"/>
-      <c r="B8" s="260"/>
-      <c r="C8" s="260"/>
-      <c r="D8" s="260"/>
-      <c r="E8" s="260"/>
-      <c r="F8" s="260"/>
-      <c r="G8" s="260"/>
-      <c r="H8" s="260"/>
-      <c r="I8" s="260"/>
-      <c r="J8" s="261" t="s">
+      <c r="A8" s="262"/>
+      <c r="B8" s="262"/>
+      <c r="C8" s="262"/>
+      <c r="D8" s="262"/>
+      <c r="E8" s="262"/>
+      <c r="F8" s="262"/>
+      <c r="G8" s="262"/>
+      <c r="H8" s="262"/>
+      <c r="I8" s="262"/>
+      <c r="J8" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="K8" s="262"/>
-      <c r="L8" s="262"/>
-      <c r="M8" s="262"/>
-      <c r="N8" s="262"/>
-      <c r="O8" s="263"/>
-      <c r="P8" s="261" t="s">
+      <c r="K8" s="264"/>
+      <c r="L8" s="264"/>
+      <c r="M8" s="264"/>
+      <c r="N8" s="264"/>
+      <c r="O8" s="265"/>
+      <c r="P8" s="263" t="s">
         <v>165</v>
       </c>
-      <c r="Q8" s="262"/>
-      <c r="R8" s="262"/>
-      <c r="S8" s="262"/>
-      <c r="T8" s="262"/>
-      <c r="U8" s="262"/>
-      <c r="V8" s="262"/>
-      <c r="W8" s="262"/>
-      <c r="X8" s="263"/>
+      <c r="Q8" s="264"/>
+      <c r="R8" s="264"/>
+      <c r="S8" s="264"/>
+      <c r="T8" s="264"/>
+      <c r="U8" s="264"/>
+      <c r="V8" s="264"/>
+      <c r="W8" s="264"/>
+      <c r="X8" s="265"/>
     </row>
     <row r="9" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -7678,66 +7741,66 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="264" t="s">
+      <c r="A10" s="275" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="264"/>
-      <c r="C10" s="264"/>
-      <c r="D10" s="264"/>
-      <c r="E10" s="264"/>
-      <c r="F10" s="264"/>
-      <c r="G10" s="264"/>
-      <c r="H10" s="264"/>
-      <c r="I10" s="264"/>
-      <c r="J10" s="264"/>
-      <c r="K10" s="264"/>
-      <c r="L10" s="264"/>
-      <c r="M10" s="264"/>
-      <c r="N10" s="264"/>
-      <c r="O10" s="264"/>
-      <c r="P10" s="264"/>
-      <c r="Q10" s="264"/>
-      <c r="R10" s="264"/>
-      <c r="S10" s="264"/>
-      <c r="T10" s="264"/>
-      <c r="U10" s="264"/>
-      <c r="V10" s="264"/>
-      <c r="W10" s="264"/>
-      <c r="X10" s="264"/>
+      <c r="B10" s="275"/>
+      <c r="C10" s="275"/>
+      <c r="D10" s="275"/>
+      <c r="E10" s="275"/>
+      <c r="F10" s="275"/>
+      <c r="G10" s="275"/>
+      <c r="H10" s="275"/>
+      <c r="I10" s="275"/>
+      <c r="J10" s="275"/>
+      <c r="K10" s="275"/>
+      <c r="L10" s="275"/>
+      <c r="M10" s="275"/>
+      <c r="N10" s="275"/>
+      <c r="O10" s="275"/>
+      <c r="P10" s="275"/>
+      <c r="Q10" s="275"/>
+      <c r="R10" s="275"/>
+      <c r="S10" s="275"/>
+      <c r="T10" s="275"/>
+      <c r="U10" s="275"/>
+      <c r="V10" s="275"/>
+      <c r="W10" s="275"/>
+      <c r="X10" s="275"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="265" t="s">
+      <c r="A11" s="276" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="265"/>
-      <c r="C11" s="265"/>
-      <c r="D11" s="265"/>
-      <c r="E11" s="265"/>
-      <c r="F11" s="265"/>
-      <c r="G11" s="265" t="s">
+      <c r="B11" s="276"/>
+      <c r="C11" s="276"/>
+      <c r="D11" s="276"/>
+      <c r="E11" s="276"/>
+      <c r="F11" s="276"/>
+      <c r="G11" s="276" t="s">
         <v>167</v>
       </c>
-      <c r="H11" s="265"/>
-      <c r="I11" s="265"/>
-      <c r="J11" s="265"/>
-      <c r="K11" s="265"/>
-      <c r="L11" s="265"/>
-      <c r="M11" s="265" t="s">
+      <c r="H11" s="276"/>
+      <c r="I11" s="276"/>
+      <c r="J11" s="276"/>
+      <c r="K11" s="276"/>
+      <c r="L11" s="276"/>
+      <c r="M11" s="276" t="s">
         <v>168</v>
       </c>
-      <c r="N11" s="265"/>
-      <c r="O11" s="265"/>
-      <c r="P11" s="265"/>
-      <c r="Q11" s="265"/>
-      <c r="R11" s="265"/>
-      <c r="S11" s="265" t="s">
+      <c r="N11" s="276"/>
+      <c r="O11" s="276"/>
+      <c r="P11" s="276"/>
+      <c r="Q11" s="276"/>
+      <c r="R11" s="276"/>
+      <c r="S11" s="276" t="s">
         <v>169</v>
       </c>
-      <c r="T11" s="265"/>
-      <c r="U11" s="265"/>
-      <c r="V11" s="265"/>
-      <c r="W11" s="265"/>
-      <c r="X11" s="265"/>
+      <c r="T11" s="276"/>
+      <c r="U11" s="276"/>
+      <c r="V11" s="276"/>
+      <c r="W11" s="276"/>
+      <c r="X11" s="276"/>
     </row>
     <row r="12" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -7766,66 +7829,66 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="251" t="s">
+      <c r="A13" s="255" t="s">
         <v>170</v>
       </c>
-      <c r="B13" s="251"/>
-      <c r="C13" s="251"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="251"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="251"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="251" t="s">
+      <c r="B13" s="255"/>
+      <c r="C13" s="255"/>
+      <c r="D13" s="255"/>
+      <c r="E13" s="255"/>
+      <c r="F13" s="255"/>
+      <c r="G13" s="255"/>
+      <c r="H13" s="255"/>
+      <c r="I13" s="255"/>
+      <c r="J13" s="255" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="251"/>
-      <c r="L13" s="251"/>
-      <c r="M13" s="251"/>
-      <c r="N13" s="251"/>
-      <c r="O13" s="251"/>
-      <c r="P13" s="251" t="s">
+      <c r="K13" s="255"/>
+      <c r="L13" s="255"/>
+      <c r="M13" s="255"/>
+      <c r="N13" s="255"/>
+      <c r="O13" s="255"/>
+      <c r="P13" s="255" t="s">
         <v>58</v>
       </c>
-      <c r="Q13" s="251"/>
-      <c r="R13" s="251"/>
-      <c r="S13" s="251"/>
-      <c r="T13" s="251"/>
-      <c r="U13" s="251"/>
-      <c r="V13" s="251"/>
-      <c r="W13" s="251"/>
-      <c r="X13" s="251"/>
+      <c r="Q13" s="255"/>
+      <c r="R13" s="255"/>
+      <c r="S13" s="255"/>
+      <c r="T13" s="255"/>
+      <c r="U13" s="255"/>
+      <c r="V13" s="255"/>
+      <c r="W13" s="255"/>
+      <c r="X13" s="255"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="260"/>
-      <c r="B14" s="260"/>
-      <c r="C14" s="260"/>
-      <c r="D14" s="260"/>
-      <c r="E14" s="260"/>
-      <c r="F14" s="260"/>
-      <c r="G14" s="260"/>
-      <c r="H14" s="260"/>
-      <c r="I14" s="260"/>
-      <c r="J14" s="261" t="s">
+      <c r="A14" s="262"/>
+      <c r="B14" s="262"/>
+      <c r="C14" s="262"/>
+      <c r="D14" s="262"/>
+      <c r="E14" s="262"/>
+      <c r="F14" s="262"/>
+      <c r="G14" s="262"/>
+      <c r="H14" s="262"/>
+      <c r="I14" s="262"/>
+      <c r="J14" s="263" t="s">
         <v>171</v>
       </c>
-      <c r="K14" s="262"/>
-      <c r="L14" s="262"/>
-      <c r="M14" s="262"/>
-      <c r="N14" s="262"/>
-      <c r="O14" s="263"/>
-      <c r="P14" s="261" t="s">
+      <c r="K14" s="264"/>
+      <c r="L14" s="264"/>
+      <c r="M14" s="264"/>
+      <c r="N14" s="264"/>
+      <c r="O14" s="265"/>
+      <c r="P14" s="263" t="s">
         <v>172</v>
       </c>
-      <c r="Q14" s="262"/>
-      <c r="R14" s="262"/>
-      <c r="S14" s="262"/>
-      <c r="T14" s="262"/>
-      <c r="U14" s="262"/>
-      <c r="V14" s="262"/>
-      <c r="W14" s="262"/>
-      <c r="X14" s="263"/>
+      <c r="Q14" s="264"/>
+      <c r="R14" s="264"/>
+      <c r="S14" s="264"/>
+      <c r="T14" s="264"/>
+      <c r="U14" s="264"/>
+      <c r="V14" s="264"/>
+      <c r="W14" s="264"/>
+      <c r="X14" s="265"/>
     </row>
     <row r="15" spans="1:24" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
@@ -7854,172 +7917,184 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="271" t="s">
+      <c r="A16" s="266" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="271"/>
-      <c r="C16" s="271"/>
-      <c r="D16" s="271"/>
-      <c r="E16" s="271"/>
-      <c r="F16" s="271"/>
-      <c r="G16" s="271"/>
-      <c r="H16" s="271"/>
-      <c r="I16" s="271"/>
-      <c r="J16" s="272" t="s">
+      <c r="B16" s="266"/>
+      <c r="C16" s="266"/>
+      <c r="D16" s="266"/>
+      <c r="E16" s="266"/>
+      <c r="F16" s="266"/>
+      <c r="G16" s="266"/>
+      <c r="H16" s="266"/>
+      <c r="I16" s="266"/>
+      <c r="J16" s="267" t="s">
         <v>174</v>
       </c>
-      <c r="K16" s="272"/>
-      <c r="L16" s="272"/>
-      <c r="M16" s="272"/>
-      <c r="N16" s="271" t="s">
+      <c r="K16" s="267"/>
+      <c r="L16" s="267"/>
+      <c r="M16" s="267"/>
+      <c r="N16" s="266" t="s">
         <v>175</v>
       </c>
-      <c r="O16" s="271"/>
-      <c r="P16" s="271"/>
-      <c r="Q16" s="271"/>
-      <c r="R16" s="271"/>
-      <c r="S16" s="271"/>
-      <c r="T16" s="273" t="s">
+      <c r="O16" s="266"/>
+      <c r="P16" s="266"/>
+      <c r="Q16" s="266"/>
+      <c r="R16" s="266"/>
+      <c r="S16" s="266"/>
+      <c r="T16" s="268" t="s">
         <v>176</v>
       </c>
-      <c r="U16" s="273"/>
-      <c r="V16" s="273"/>
-      <c r="W16" s="273"/>
-      <c r="X16" s="273"/>
+      <c r="U16" s="268"/>
+      <c r="V16" s="268"/>
+      <c r="W16" s="268"/>
+      <c r="X16" s="268"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="266" t="s">
+      <c r="A17" s="256" t="s">
         <v>177</v>
       </c>
-      <c r="B17" s="258"/>
-      <c r="C17" s="258"/>
-      <c r="D17" s="258"/>
-      <c r="E17" s="258"/>
-      <c r="F17" s="258"/>
-      <c r="G17" s="258"/>
-      <c r="H17" s="258"/>
-      <c r="I17" s="267"/>
-      <c r="J17" s="274" t="s">
+      <c r="B17" s="257"/>
+      <c r="C17" s="257"/>
+      <c r="D17" s="257"/>
+      <c r="E17" s="257"/>
+      <c r="F17" s="257"/>
+      <c r="G17" s="257"/>
+      <c r="H17" s="257"/>
+      <c r="I17" s="258"/>
+      <c r="J17" s="269" t="s">
         <v>178</v>
       </c>
-      <c r="K17" s="275"/>
-      <c r="L17" s="275"/>
-      <c r="M17" s="276"/>
-      <c r="N17" s="266" t="s">
+      <c r="K17" s="270"/>
+      <c r="L17" s="270"/>
+      <c r="M17" s="271"/>
+      <c r="N17" s="256" t="s">
         <v>179</v>
       </c>
-      <c r="O17" s="258"/>
-      <c r="P17" s="258"/>
-      <c r="Q17" s="258"/>
-      <c r="R17" s="258"/>
-      <c r="S17" s="267"/>
-      <c r="T17" s="266" t="s">
+      <c r="O17" s="257"/>
+      <c r="P17" s="257"/>
+      <c r="Q17" s="257"/>
+      <c r="R17" s="257"/>
+      <c r="S17" s="258"/>
+      <c r="T17" s="256" t="s">
         <v>180</v>
       </c>
-      <c r="U17" s="258"/>
-      <c r="V17" s="258"/>
-      <c r="W17" s="258"/>
-      <c r="X17" s="267"/>
+      <c r="U17" s="257"/>
+      <c r="V17" s="257"/>
+      <c r="W17" s="257"/>
+      <c r="X17" s="258"/>
     </row>
     <row r="18" spans="1:24" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="268"/>
-      <c r="B18" s="269"/>
-      <c r="C18" s="269"/>
-      <c r="D18" s="269"/>
-      <c r="E18" s="269"/>
-      <c r="F18" s="269"/>
-      <c r="G18" s="269"/>
-      <c r="H18" s="269"/>
-      <c r="I18" s="270"/>
-      <c r="J18" s="277"/>
-      <c r="K18" s="278"/>
-      <c r="L18" s="278"/>
-      <c r="M18" s="279"/>
-      <c r="N18" s="268"/>
-      <c r="O18" s="269"/>
-      <c r="P18" s="269"/>
-      <c r="Q18" s="269"/>
-      <c r="R18" s="269"/>
-      <c r="S18" s="270"/>
-      <c r="T18" s="268"/>
-      <c r="U18" s="269"/>
-      <c r="V18" s="269"/>
-      <c r="W18" s="269"/>
-      <c r="X18" s="270"/>
+      <c r="A18" s="259"/>
+      <c r="B18" s="260"/>
+      <c r="C18" s="260"/>
+      <c r="D18" s="260"/>
+      <c r="E18" s="260"/>
+      <c r="F18" s="260"/>
+      <c r="G18" s="260"/>
+      <c r="H18" s="260"/>
+      <c r="I18" s="261"/>
+      <c r="J18" s="272"/>
+      <c r="K18" s="273"/>
+      <c r="L18" s="273"/>
+      <c r="M18" s="274"/>
+      <c r="N18" s="259"/>
+      <c r="O18" s="260"/>
+      <c r="P18" s="260"/>
+      <c r="Q18" s="260"/>
+      <c r="R18" s="260"/>
+      <c r="S18" s="261"/>
+      <c r="T18" s="259"/>
+      <c r="U18" s="260"/>
+      <c r="V18" s="260"/>
+      <c r="W18" s="260"/>
+      <c r="X18" s="261"/>
     </row>
     <row r="19" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="283" t="s">
+      <c r="A21" s="254" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="283"/>
-      <c r="C21" s="283"/>
-      <c r="D21" s="283"/>
-      <c r="E21" s="283"/>
-      <c r="F21" s="283"/>
-      <c r="G21" s="283"/>
-      <c r="H21" s="283"/>
+      <c r="B21" s="254"/>
+      <c r="C21" s="254"/>
+      <c r="D21" s="254"/>
+      <c r="E21" s="254"/>
+      <c r="F21" s="254"/>
+      <c r="G21" s="254"/>
+      <c r="H21" s="254"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="283" t="s">
+      <c r="J21" s="254" t="s">
         <v>182</v>
       </c>
-      <c r="K21" s="283"/>
-      <c r="L21" s="283"/>
-      <c r="M21" s="283"/>
-      <c r="N21" s="283"/>
-      <c r="O21" s="283"/>
-      <c r="P21" s="283"/>
+      <c r="K21" s="254"/>
+      <c r="L21" s="254"/>
+      <c r="M21" s="254"/>
+      <c r="N21" s="254"/>
+      <c r="O21" s="254"/>
+      <c r="P21" s="254"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="283" t="s">
+      <c r="R21" s="254" t="s">
         <v>183</v>
       </c>
-      <c r="S21" s="283"/>
-      <c r="T21" s="283"/>
-      <c r="U21" s="283"/>
-      <c r="V21" s="283"/>
-      <c r="W21" s="283"/>
-      <c r="X21" s="283"/>
+      <c r="S21" s="254"/>
+      <c r="T21" s="254"/>
+      <c r="U21" s="254"/>
+      <c r="V21" s="254"/>
+      <c r="W21" s="254"/>
+      <c r="X21" s="254"/>
     </row>
     <row r="23" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P23" s="280" t="s">
+      <c r="P23" s="251" t="s">
         <v>184</v>
       </c>
-      <c r="Q23" s="280"/>
-      <c r="R23" s="280"/>
-      <c r="S23" s="280"/>
-      <c r="T23" s="280"/>
-      <c r="U23" s="281" t="s">
+      <c r="Q23" s="251"/>
+      <c r="R23" s="251"/>
+      <c r="S23" s="251"/>
+      <c r="T23" s="251"/>
+      <c r="U23" s="252" t="s">
         <v>185</v>
       </c>
-      <c r="V23" s="281"/>
-      <c r="W23" s="281"/>
-      <c r="X23" s="281"/>
+      <c r="V23" s="252"/>
+      <c r="W23" s="252"/>
+      <c r="X23" s="252"/>
     </row>
     <row r="24" spans="1:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P24" s="280" t="s">
+      <c r="P24" s="251" t="s">
         <v>186</v>
       </c>
-      <c r="Q24" s="280"/>
-      <c r="R24" s="280"/>
-      <c r="S24" s="280"/>
-      <c r="T24" s="280"/>
-      <c r="U24" s="282" t="s">
+      <c r="Q24" s="251"/>
+      <c r="R24" s="251"/>
+      <c r="S24" s="251"/>
+      <c r="T24" s="251"/>
+      <c r="U24" s="253" t="s">
         <v>187</v>
       </c>
-      <c r="V24" s="282"/>
-      <c r="W24" s="282"/>
-      <c r="X24" s="282"/>
+      <c r="V24" s="253"/>
+      <c r="W24" s="253"/>
+      <c r="X24" s="253"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="R21:X21"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:X7"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="N4:X4"/>
+    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="U2:X3"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="P8:X8"/>
+    <mergeCell ref="A10:X10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:X11"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="J13:O13"/>
     <mergeCell ref="P13:X13"/>
@@ -8034,25 +8109,13 @@
     <mergeCell ref="T16:X16"/>
     <mergeCell ref="A17:I18"/>
     <mergeCell ref="J17:M18"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="P8:X8"/>
-    <mergeCell ref="A10:X10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:X11"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:X7"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="N4:X4"/>
-    <mergeCell ref="N5:X5"/>
-    <mergeCell ref="U2:X3"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="R21:X21"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" horizontalDpi="4294967294" verticalDpi="200" r:id="rId1"/>
